--- a/ada_data.xlsx
+++ b/ada_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5524586981510534</v>
+        <v>0.5597850009073527</v>
       </c>
       <c r="C2" t="n">
-        <v>823679937.8247002</v>
+        <v>680713342.7538884</v>
       </c>
       <c r="D2" t="n">
-        <v>18697412375.46549</v>
+        <v>18927844549.39547</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5597850009073527</v>
+        <v>0.5393016068527493</v>
       </c>
       <c r="C3" t="n">
-        <v>680713342.7538884</v>
+        <v>996531852.8378624</v>
       </c>
       <c r="D3" t="n">
-        <v>18927844549.39547</v>
+        <v>18212548966.16253</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-3.779065182864583</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5393016068527493</v>
+        <v>0.5144868805216321</v>
       </c>
       <c r="C4" t="n">
-        <v>996531852.8378624</v>
+        <v>574175563.3406008</v>
       </c>
       <c r="D4" t="n">
-        <v>18212548966.16253</v>
+        <v>17412399056.99138</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-4.39339880791958</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5144868805216321</v>
+        <v>0.4525472208413106</v>
       </c>
       <c r="C5" t="n">
-        <v>574175563.3406008</v>
+        <v>1131869911.178255</v>
       </c>
       <c r="D5" t="n">
-        <v>17412399056.99138</v>
+        <v>15264620469.32385</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-12.33476547739215</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4525472208413106</v>
+        <v>0.4521652403438286</v>
       </c>
       <c r="C6" t="n">
-        <v>1131869911.178255</v>
+        <v>712605130.5730289</v>
       </c>
       <c r="D6" t="n">
-        <v>15264620469.32385</v>
+        <v>15287373242.70164</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.1490556114612795</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4521652403438286</v>
+        <v>0.4649373584453527</v>
       </c>
       <c r="C7" t="n">
-        <v>712605130.5730289</v>
+        <v>572942227.1883541</v>
       </c>
       <c r="D7" t="n">
-        <v>15287373242.70164</v>
+        <v>15737082239.76691</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2.941702213491504</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4649373584453527</v>
+        <v>0.4610396676851755</v>
       </c>
       <c r="C8" t="n">
-        <v>572942227.1883541</v>
+        <v>652365390.9596139</v>
       </c>
       <c r="D8" t="n">
-        <v>15737082239.76691</v>
+        <v>15558968017.80262</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-1.131812233364349</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4610396676851755</v>
+        <v>0.4661972409426101</v>
       </c>
       <c r="C9" t="n">
-        <v>652365390.9596139</v>
+        <v>496523434.9409549</v>
       </c>
       <c r="D9" t="n">
-        <v>15558968017.80262</v>
+        <v>15758641592.15292</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>1.283334306760198</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4661972409426101</v>
+        <v>0.4584873318259582</v>
       </c>
       <c r="C10" t="n">
-        <v>496523434.9409549</v>
+        <v>419728029.6500707</v>
       </c>
       <c r="D10" t="n">
-        <v>15758641592.15292</v>
+        <v>15498632416.57211</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-1.649946628079202</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4584873318259582</v>
+        <v>0.4656488051794113</v>
       </c>
       <c r="C11" t="n">
-        <v>419728029.6500707</v>
+        <v>455105017.3512875</v>
       </c>
       <c r="D11" t="n">
-        <v>15498632416.57211</v>
+        <v>15769622061.03683</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1.748474556858048</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4656488051794113</v>
+        <v>0.4324677991726041</v>
       </c>
       <c r="C12" t="n">
-        <v>455105017.3512875</v>
+        <v>1067566966.6843</v>
       </c>
       <c r="D12" t="n">
-        <v>15769622061.03683</v>
+        <v>14532909604.99764</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-7.842372196698532</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4324677991726041</v>
+        <v>0.4518468678970884</v>
       </c>
       <c r="C13" t="n">
-        <v>1067566966.6843</v>
+        <v>611619788.9378777</v>
       </c>
       <c r="D13" t="n">
-        <v>14532909604.99764</v>
+        <v>15255653329.04104</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>4.973152270862968</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4518468678970884</v>
+        <v>0.4317549695969831</v>
       </c>
       <c r="C14" t="n">
-        <v>611619788.9378777</v>
+        <v>422733249.4144595</v>
       </c>
       <c r="D14" t="n">
-        <v>15255653329.04104</v>
+        <v>14635063104.04962</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-4.067936073311607</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4317549695969831</v>
+        <v>0.4517569567660419</v>
       </c>
       <c r="C15" t="n">
-        <v>422733249.4144595</v>
+        <v>495542633.8297333</v>
       </c>
       <c r="D15" t="n">
-        <v>14635063104.04962</v>
+        <v>15311579937.34034</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>4.622575444198307</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4517569567660419</v>
+        <v>0.4526699699342835</v>
       </c>
       <c r="C16" t="n">
-        <v>495542633.8297333</v>
+        <v>545010438.7828535</v>
       </c>
       <c r="D16" t="n">
-        <v>15311579937.34034</v>
+        <v>15340224310.0721</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.1870765319384127</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4526699699342835</v>
+        <v>0.4466726418878974</v>
       </c>
       <c r="C17" t="n">
-        <v>545010438.7828535</v>
+        <v>442697001.1300091</v>
       </c>
       <c r="D17" t="n">
-        <v>15340224310.0721</v>
+        <v>15116206759.44907</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-1.46032773768463</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4466726418878974</v>
+        <v>0.458588258493987</v>
       </c>
       <c r="C18" t="n">
-        <v>442697001.1300091</v>
+        <v>488499192.2825552</v>
       </c>
       <c r="D18" t="n">
-        <v>15116206759.44907</v>
+        <v>15490616058.46035</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>2.476873364921617</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>0.458588258493987</v>
+        <v>0.4548957728918525</v>
       </c>
       <c r="C19" t="n">
-        <v>488499192.2825552</v>
+        <v>445202474.1221141</v>
       </c>
       <c r="D19" t="n">
-        <v>15490616058.46035</v>
+        <v>15371731935.34086</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-0.7674589743288829</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4548957728918525</v>
+        <v>0.480291543128686</v>
       </c>
       <c r="C20" t="n">
-        <v>445202474.1221141</v>
+        <v>669578779.8853098</v>
       </c>
       <c r="D20" t="n">
-        <v>15371731935.34086</v>
+        <v>16272187678.98457</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>5.857867854002108</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>0.480291543128686</v>
+        <v>0.5026112502036145</v>
       </c>
       <c r="C21" t="n">
-        <v>669578779.8853098</v>
+        <v>771344282.1348823</v>
       </c>
       <c r="D21" t="n">
-        <v>16272187678.98457</v>
+        <v>16979205843.87623</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>4.344948441104601</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5026112502036145</v>
+        <v>0.4997818982448003</v>
       </c>
       <c r="C22" t="n">
-        <v>771344282.1348823</v>
+        <v>563073797.6770258</v>
       </c>
       <c r="D22" t="n">
-        <v>16979205843.87623</v>
+        <v>16869479136.03485</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-0.6462416961683592</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4997818982448003</v>
+        <v>0.4643124644102244</v>
       </c>
       <c r="C23" t="n">
-        <v>563073797.6770258</v>
+        <v>840012624.9306988</v>
       </c>
       <c r="D23" t="n">
-        <v>16869479136.03485</v>
+        <v>15710782585.77587</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-6.868597073539084</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4643124644102244</v>
+        <v>0.4798317548066893</v>
       </c>
       <c r="C24" t="n">
-        <v>840012624.9306988</v>
+        <v>596467887.4374392</v>
       </c>
       <c r="D24" t="n">
-        <v>15710782585.77587</v>
+        <v>16275716122.45595</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>3.595833203061161</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4798317548066893</v>
+        <v>0.4800367207588925</v>
       </c>
       <c r="C25" t="n">
-        <v>596467887.4374392</v>
+        <v>546946753.3772337</v>
       </c>
       <c r="D25" t="n">
-        <v>16275716122.45595</v>
+        <v>16225891068.95675</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-0.306131251763786</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4800367207588925</v>
+        <v>0.502127662637198</v>
       </c>
       <c r="C26" t="n">
-        <v>546946753.3772337</v>
+        <v>735761266.585142</v>
       </c>
       <c r="D26" t="n">
-        <v>16225891068.95675</v>
+        <v>16883909775.07876</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>4.055362527244655</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>0.502127662637198</v>
+        <v>0.5125662558826063</v>
       </c>
       <c r="C27" t="n">
-        <v>735761266.585142</v>
+        <v>846515848.166846</v>
       </c>
       <c r="D27" t="n">
-        <v>16883909775.07876</v>
+        <v>17349135568.20951</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>2.755438753987183</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5125662558826063</v>
+        <v>0.5085717405815829</v>
       </c>
       <c r="C28" t="n">
-        <v>846515848.166846</v>
+        <v>602005606.8858048</v>
       </c>
       <c r="D28" t="n">
-        <v>17349135568.20951</v>
+        <v>17203617072.33247</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-0.8387651091025683</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5085717405815829</v>
+        <v>0.5006117910318423</v>
       </c>
       <c r="C29" t="n">
-        <v>602005606.8858048</v>
+        <v>736124582.7163935</v>
       </c>
       <c r="D29" t="n">
-        <v>17203617072.33247</v>
+        <v>16929934732.47398</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-1.590841848593794</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5006117910318423</v>
+        <v>0.4655851128844718</v>
       </c>
       <c r="C30" t="n">
-        <v>736124582.7163935</v>
+        <v>871818623.8724078</v>
       </c>
       <c r="D30" t="n">
-        <v>16929934732.47398</v>
+        <v>15757149494.53333</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-6.927287414115568</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4655851128844718</v>
+        <v>0.4822318287698973</v>
       </c>
       <c r="C31" t="n">
-        <v>871818623.8724078</v>
+        <v>626860025.9736454</v>
       </c>
       <c r="D31" t="n">
-        <v>15757149494.53333</v>
+        <v>16255726044.60442</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03348924964472424</v>
+        <v>0.03048250831340185</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.164129084667677</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4822318287698973</v>
+        <v>0.4665335062076688</v>
       </c>
       <c r="C32" t="n">
-        <v>626860025.9736454</v>
+        <v>563333171.3964566</v>
       </c>
       <c r="D32" t="n">
-        <v>16255726044.60442</v>
+        <v>15787367090.02337</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03048250831340186</v>
+        <v>0.02613756312125599</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.881193699351947</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4665335062076688</v>
+        <v>0.474275886041687</v>
       </c>
       <c r="C33" t="n">
-        <v>563333171.3964566</v>
+        <v>471827719.7126328</v>
       </c>
       <c r="D33" t="n">
-        <v>15787367090.02337</v>
+        <v>16036352648.16865</v>
       </c>
       <c r="E33" t="n">
-        <v>0.026137563121256</v>
+        <v>0.02298616069829584</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.577118950395673</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>0.474275886041687</v>
+        <v>0.487738017805055</v>
       </c>
       <c r="C34" t="n">
-        <v>471827719.7126328</v>
+        <v>442079343.1228785</v>
       </c>
       <c r="D34" t="n">
-        <v>16036352648.16865</v>
+        <v>16481081019.23323</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02298616069829585</v>
+        <v>0.02173318773406702</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.773251379673081</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>0.487738017805055</v>
+        <v>0.4485764937339541</v>
       </c>
       <c r="C35" t="n">
-        <v>442079343.1228785</v>
+        <v>558733055.79383</v>
       </c>
       <c r="D35" t="n">
-        <v>16481081019.23323</v>
+        <v>15177820354.6685</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02173318773406703</v>
+        <v>0.02185672682911955</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-7.907616393875161</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4485764937339541</v>
+        <v>0.4547069922944302</v>
       </c>
       <c r="C36" t="n">
-        <v>558733055.79383</v>
+        <v>652710345.4408419</v>
       </c>
       <c r="D36" t="n">
-        <v>15177820354.6685</v>
+        <v>15380850389.8917</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02185672682911956</v>
+        <v>0.02178938785867374</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.337675835389351</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4547069922944302</v>
+        <v>0.4421106099185848</v>
       </c>
       <c r="C37" t="n">
-        <v>652710345.4408419</v>
+        <v>458720063.4322484</v>
       </c>
       <c r="D37" t="n">
-        <v>15380850389.8917</v>
+        <v>14971439823.89989</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02178938785867375</v>
+        <v>0.02237190077070571</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.661820091955891</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4421106099185848</v>
+        <v>0.4419991413548421</v>
       </c>
       <c r="C38" t="n">
-        <v>458720063.4322484</v>
+        <v>1000019241.032692</v>
       </c>
       <c r="D38" t="n">
-        <v>14971439823.89989</v>
+        <v>14927028910.26723</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02237190077070573</v>
+        <v>0.02288395935691794</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.2966375589458226</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4419991413548421</v>
+        <v>0.4602227485381727</v>
       </c>
       <c r="C39" t="n">
-        <v>1000019241.032692</v>
+        <v>639659167.8304157</v>
       </c>
       <c r="D39" t="n">
-        <v>14927028910.26723</v>
+        <v>15552763941.8078</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02288395935691795</v>
+        <v>0.02293378003481874</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.191959667942813</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4602227485381727</v>
+        <v>0.4626775431681953</v>
       </c>
       <c r="C40" t="n">
-        <v>639659167.8304157</v>
+        <v>840576833.5177985</v>
       </c>
       <c r="D40" t="n">
-        <v>15552763941.8078</v>
+        <v>15705053312.77471</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02293378003481875</v>
+        <v>0.02288245172694424</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9791788233700638</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4626775431681953</v>
+        <v>0.4528707038191501</v>
       </c>
       <c r="C41" t="n">
-        <v>840576833.5177985</v>
+        <v>495364665.5291062</v>
       </c>
       <c r="D41" t="n">
-        <v>15705053312.77471</v>
+        <v>15316824192.49042</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02288245172694425</v>
+        <v>0.02306116910692954</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-2.472001288709402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4528707038191501</v>
+        <v>0.4473009934232198</v>
       </c>
       <c r="C42" t="n">
-        <v>495364665.5291062</v>
+        <v>447022381.2770915</v>
       </c>
       <c r="D42" t="n">
-        <v>15316824192.49042</v>
+        <v>15119251766.60146</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02306116910692955</v>
+        <v>0.02241495970515086</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1.289904639538997</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4473009934232198</v>
+        <v>0.4467679924841252</v>
       </c>
       <c r="C43" t="n">
-        <v>447022381.2770915</v>
+        <v>527803459.1931037</v>
       </c>
       <c r="D43" t="n">
-        <v>15119251766.60146</v>
+        <v>15075736600.03213</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02241495970515087</v>
+        <v>0.02256654393548133</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.2878129635056292</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4467679924841252</v>
+        <v>0.4425349322585037</v>
       </c>
       <c r="C44" t="n">
-        <v>527803459.1931037</v>
+        <v>575411543.574594</v>
       </c>
       <c r="D44" t="n">
-        <v>15075736600.03213</v>
+        <v>14974356860.25574</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02256654393548134</v>
+        <v>0.02203778158180949</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6724695612960851</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4425349322585037</v>
+        <v>0.4384459040360633</v>
       </c>
       <c r="C45" t="n">
-        <v>575411543.574594</v>
+        <v>507181125.7977745</v>
       </c>
       <c r="D45" t="n">
-        <v>14974356860.25574</v>
+        <v>14823431642.06532</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0220377815818095</v>
+        <v>0.02252651287155972</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-1.007891154183704</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4384459040360633</v>
+        <v>0.4379770161005977</v>
       </c>
       <c r="C46" t="n">
-        <v>507181125.7977745</v>
+        <v>451700955.3101255</v>
       </c>
       <c r="D46" t="n">
-        <v>14823431642.06532</v>
+        <v>14806691717.48292</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02252651287155974</v>
+        <v>0.02303881280648527</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.112928807489443</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4379770161005977</v>
+        <v>0.4344260555443908</v>
       </c>
       <c r="C47" t="n">
-        <v>451700955.3101255</v>
+        <v>476695048.2153691</v>
       </c>
       <c r="D47" t="n">
-        <v>14806691717.48292</v>
+        <v>14696613225.45377</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02303881280648528</v>
+        <v>0.02353500339480872</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.7434374546960609</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4344260555443908</v>
+        <v>0.4309075012509174</v>
       </c>
       <c r="C48" t="n">
-        <v>476695048.2153691</v>
+        <v>275605662.6433774</v>
       </c>
       <c r="D48" t="n">
-        <v>14696613225.45377</v>
+        <v>14572943700.77581</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02353500339480873</v>
+        <v>0.02443041025423863</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.8414831552059132</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4309075012509174</v>
+        <v>0.4203358263307138</v>
       </c>
       <c r="C49" t="n">
-        <v>275605662.6433774</v>
+        <v>349880389.8333772</v>
       </c>
       <c r="D49" t="n">
-        <v>14572943700.77581</v>
+        <v>14166555661.59859</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02443041025423864</v>
+        <v>0.02578746779099632</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-2.788647561683744</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4203358263307138</v>
+        <v>0.4284228844078707</v>
       </c>
       <c r="C50" t="n">
-        <v>349880389.8333772</v>
+        <v>396923709.1580178</v>
       </c>
       <c r="D50" t="n">
-        <v>14166555661.59859</v>
+        <v>14489425802.19616</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02578746779099632</v>
+        <v>0.02649969168224004</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.279101203638234</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4284228844078707</v>
+        <v>0.4364116140393047</v>
       </c>
       <c r="C51" t="n">
-        <v>396923709.1580178</v>
+        <v>389554924.5362484</v>
       </c>
       <c r="D51" t="n">
-        <v>14489425802.19616</v>
+        <v>14750681909.15024</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02649969168224005</v>
+        <v>0.02591510329776747</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.803081160845466</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4364116140393047</v>
+        <v>0.4314549067842627</v>
       </c>
       <c r="C52" t="n">
-        <v>389554924.5362484</v>
+        <v>386899877.8492616</v>
       </c>
       <c r="D52" t="n">
-        <v>14750681909.15024</v>
+        <v>14592010193.09607</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02591510329776748</v>
+        <v>0.02545086059907184</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-1.075690717428768</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4314549067842627</v>
+        <v>0.4289911363146364</v>
       </c>
       <c r="C53" t="n">
-        <v>386899877.8492616</v>
+        <v>373891185.4703044</v>
       </c>
       <c r="D53" t="n">
-        <v>14592010193.09607</v>
+        <v>14516473487.04798</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02545086059907185</v>
+        <v>0.0260271551369158</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.517657985764175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4289911363146364</v>
+        <v>0.4252980966553547</v>
       </c>
       <c r="C54" t="n">
-        <v>373891185.4703044</v>
+        <v>376520586.2204255</v>
       </c>
       <c r="D54" t="n">
-        <v>14516473487.04798</v>
+        <v>14372895277.92022</v>
       </c>
       <c r="E54" t="n">
-        <v>0.02602715513691581</v>
+        <v>0.02636938676779698</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.9890708597778408</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4252980966553547</v>
+        <v>0.4221984363702373</v>
       </c>
       <c r="C55" t="n">
-        <v>376520586.2204255</v>
+        <v>256034560.8302528</v>
       </c>
       <c r="D55" t="n">
-        <v>14372895277.92022</v>
+        <v>14276638995.58968</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02636938676779699</v>
+        <v>0.02669579762883666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.6697069760078889</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4221984363702373</v>
+        <v>0.4226755175063976</v>
       </c>
       <c r="C56" t="n">
-        <v>256034560.8302528</v>
+        <v>244792009.0146055</v>
       </c>
       <c r="D56" t="n">
-        <v>14276638995.58968</v>
+        <v>14290398884.44242</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02669579762883666</v>
+        <v>0.02573113339627526</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.09638044960715852</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4226755175063976</v>
+        <v>0.4020728336836243</v>
       </c>
       <c r="C57" t="n">
-        <v>244792009.0146055</v>
+        <v>433727773.1261243</v>
       </c>
       <c r="D57" t="n">
-        <v>14290398884.44242</v>
+        <v>13653344259.45396</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02573113339627527</v>
+        <v>0.02462438647000047</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-4.457920525101667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4020728336836243</v>
+        <v>0.3908721911480046</v>
       </c>
       <c r="C58" t="n">
-        <v>433727773.1261243</v>
+        <v>562570768.2764642</v>
       </c>
       <c r="D58" t="n">
-        <v>13653344259.45396</v>
+        <v>13198595290.31068</v>
       </c>
       <c r="E58" t="n">
-        <v>0.02462438647000048</v>
+        <v>0.02403735835153728</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-3.330678260957154</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3908721911480046</v>
+        <v>0.3814679269243618</v>
       </c>
       <c r="C59" t="n">
-        <v>562570768.2764642</v>
+        <v>400079678.543493</v>
       </c>
       <c r="D59" t="n">
-        <v>13198595290.31068</v>
+        <v>12901537611.6372</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02403735835153729</v>
+        <v>0.0242442272165327</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-2.250676470787494</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3814679269243618</v>
+        <v>0.3785217444823191</v>
       </c>
       <c r="C60" t="n">
-        <v>400079678.543493</v>
+        <v>858230070.8400732</v>
       </c>
       <c r="D60" t="n">
-        <v>12901537611.6372</v>
+        <v>12791915350.82871</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02424422721653271</v>
+        <v>0.02623827323158411</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.849683689714642</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3785217444823191</v>
+        <v>0.3672755754076161</v>
       </c>
       <c r="C61" t="n">
-        <v>858230070.8400732</v>
+        <v>487794378.2502631</v>
       </c>
       <c r="D61" t="n">
-        <v>12791915350.82871</v>
+        <v>12392689792.86326</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02623827323158412</v>
+        <v>0.02780755885754894</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-3.120920886484668</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3672755754076161</v>
+        <v>0.3640513982355477</v>
       </c>
       <c r="C62" t="n">
-        <v>487794378.2502631</v>
+        <v>311812753.1759219</v>
       </c>
       <c r="D62" t="n">
-        <v>12392689792.86326</v>
+        <v>12309037704.76</v>
       </c>
       <c r="E62" t="n">
-        <v>0.02780755885754895</v>
+        <v>0.02983499137273168</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.6750115552108804</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3640513982355477</v>
+        <v>0.3703716796817451</v>
       </c>
       <c r="C63" t="n">
-        <v>311812753.1759219</v>
+        <v>297264807.4497895</v>
       </c>
       <c r="D63" t="n">
-        <v>12309037704.76</v>
+        <v>12515578717.08945</v>
       </c>
       <c r="E63" t="n">
-        <v>0.02983499137273168</v>
+        <v>0.03055455595953191</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.677962301225078</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3703716796817451</v>
+        <v>0.3733983200600973</v>
       </c>
       <c r="C64" t="n">
-        <v>297264807.4497895</v>
+        <v>321996860.0805827</v>
       </c>
       <c r="D64" t="n">
-        <v>12515578717.08945</v>
+        <v>12609605254.11135</v>
       </c>
       <c r="E64" t="n">
-        <v>0.03055455595953192</v>
+        <v>0.02979438819807473</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.7512759828957272</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3733983200600973</v>
+        <v>0.3625218701778715</v>
       </c>
       <c r="C65" t="n">
-        <v>321996860.0805827</v>
+        <v>380762928.3209235</v>
       </c>
       <c r="D65" t="n">
-        <v>12609605254.11135</v>
+        <v>12256641766.95576</v>
       </c>
       <c r="E65" t="n">
-        <v>0.02979438819807474</v>
+        <v>0.03133432335002836</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.799163653759185</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3625218701778715</v>
+        <v>0.3500222186755957</v>
       </c>
       <c r="C66" t="n">
-        <v>380762928.3209235</v>
+        <v>415923322.6878948</v>
       </c>
       <c r="D66" t="n">
-        <v>12256641766.95576</v>
+        <v>11852415892.09756</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03133432335002837</v>
+        <v>0.03311183670911121</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-3.29801492565448</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3500222186755957</v>
+        <v>0.3401372254880791</v>
       </c>
       <c r="C67" t="n">
-        <v>415923322.6878948</v>
+        <v>471611618.8314314</v>
       </c>
       <c r="D67" t="n">
-        <v>11852415892.09756</v>
+        <v>11498614666.31761</v>
       </c>
       <c r="E67" t="n">
-        <v>0.03311183670911122</v>
+        <v>0.03553603610436998</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-2.98505578103988</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3401372254880791</v>
+        <v>0.3492882629017011</v>
       </c>
       <c r="C68" t="n">
-        <v>471611618.8314314</v>
+        <v>499292036.85871</v>
       </c>
       <c r="D68" t="n">
-        <v>11498614666.31761</v>
+        <v>12240818816.6128</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03553603610437</v>
+        <v>0.03693866223953809</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6.454726693897261</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3492882629017011</v>
+        <v>0.3515731905333527</v>
       </c>
       <c r="C69" t="n">
-        <v>499292036.85871</v>
+        <v>337935170.3284901</v>
       </c>
       <c r="D69" t="n">
-        <v>12240818816.6128</v>
+        <v>12322276862.64545</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03693866223953809</v>
+        <v>0.03717005801352761</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.6654623947386806</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3515731905333527</v>
+        <v>0.3619170900273708</v>
       </c>
       <c r="C70" t="n">
-        <v>337935170.3284901</v>
+        <v>384355315.3942229</v>
       </c>
       <c r="D70" t="n">
-        <v>12322276862.64545</v>
+        <v>12679018038.41286</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03717005801352762</v>
+        <v>0.03645263089365358</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.895091384035187</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3619170900273708</v>
+        <v>0.3571781473990901</v>
       </c>
       <c r="C71" t="n">
-        <v>384355315.3942229</v>
+        <v>376006394.129509</v>
       </c>
       <c r="D71" t="n">
-        <v>12679018038.41286</v>
+        <v>12514592960.48661</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03645263089365359</v>
+        <v>0.03612507699525451</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1.296828172561215</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3571781473990901</v>
+        <v>0.4030334080328212</v>
       </c>
       <c r="C72" t="n">
-        <v>376006394.129509</v>
+        <v>1142066696.381463</v>
       </c>
       <c r="D72" t="n">
-        <v>12514592960.48661</v>
+        <v>14125111627.50273</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03612507699525452</v>
+        <v>0.03500582210872719</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12.86912544499967</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4030334080328212</v>
+        <v>0.4032445069791389</v>
       </c>
       <c r="C73" t="n">
-        <v>1142066696.381463</v>
+        <v>744946954.6647252</v>
       </c>
       <c r="D73" t="n">
-        <v>14125111627.50273</v>
+        <v>14116657054.03814</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0350058221087272</v>
+        <v>0.03381158679077129</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.05985491433654344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4032445069791389</v>
+        <v>0.3888590355999426</v>
       </c>
       <c r="C74" t="n">
-        <v>744946954.6647252</v>
+        <v>680572977.9910443</v>
       </c>
       <c r="D74" t="n">
-        <v>14116657054.03814</v>
+        <v>13643453921.01044</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0338115867907713</v>
+        <v>0.03271594048103344</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.352090592101942</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3888590355999426</v>
+        <v>0.4041449171736792</v>
       </c>
       <c r="C75" t="n">
-        <v>680572977.9910443</v>
+        <v>600688333.606234</v>
       </c>
       <c r="D75" t="n">
-        <v>13643453921.01044</v>
+        <v>14152659906.88777</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03271594048103345</v>
+        <v>0.03173390358154229</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.732236637624253</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4041449171736792</v>
+        <v>0.4182002717852809</v>
       </c>
       <c r="C76" t="n">
-        <v>600688333.606234</v>
+        <v>834938838.5776018</v>
       </c>
       <c r="D76" t="n">
-        <v>14152659906.88777</v>
+        <v>14641239556.10352</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03173390358154229</v>
+        <v>0.03098473735778896</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.45221076765907</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4182002717852809</v>
+        <v>0.4053084047508027</v>
       </c>
       <c r="C77" t="n">
-        <v>834938838.5776018</v>
+        <v>546408379.8270994</v>
       </c>
       <c r="D77" t="n">
-        <v>14641239556.10352</v>
+        <v>14192539385.42672</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03098473735778897</v>
+        <v>0.03009564299196704</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-3.064632396440437</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4053084047508027</v>
+        <v>0.4061606265048067</v>
       </c>
       <c r="C78" t="n">
-        <v>546408379.8270994</v>
+        <v>541574807.846433</v>
       </c>
       <c r="D78" t="n">
-        <v>14192539385.42672</v>
+        <v>14239209401.8582</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03009564299196704</v>
+        <v>0.02933149166449072</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.328834855863791</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4061606265048067</v>
+        <v>0.4010780130322905</v>
       </c>
       <c r="C79" t="n">
-        <v>541574807.846433</v>
+        <v>424389249.7864117</v>
       </c>
       <c r="D79" t="n">
-        <v>14239209401.8582</v>
+        <v>14046284574.96024</v>
       </c>
       <c r="E79" t="n">
-        <v>0.02933149166449072</v>
+        <v>0.02888631251522388</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-1.354884400202616</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4010780130322905</v>
+        <v>0.38621096907437</v>
       </c>
       <c r="C80" t="n">
-        <v>424389249.7864117</v>
+        <v>689133409.863233</v>
       </c>
       <c r="D80" t="n">
-        <v>14046284574.96024</v>
+        <v>13531395048.58461</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02888631251522389</v>
+        <v>0.02800885933860922</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-3.665663497189164</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>0.38621096907437</v>
+        <v>0.3892902544894817</v>
       </c>
       <c r="C81" t="n">
-        <v>689133409.863233</v>
+        <v>416914850.6662955</v>
       </c>
       <c r="D81" t="n">
-        <v>13531395048.58461</v>
+        <v>13636465621.52572</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02800885933860922</v>
+        <v>0.02656961503519921</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.7764947558167812</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3892902544894817</v>
+        <v>0.4215241135694441</v>
       </c>
       <c r="C82" t="n">
-        <v>416914850.6662955</v>
+        <v>899389018.3221228</v>
       </c>
       <c r="D82" t="n">
-        <v>13636465621.52572</v>
+        <v>14770772848.80776</v>
       </c>
       <c r="E82" t="n">
-        <v>0.02656961503519922</v>
+        <v>0.0260652577770085</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8.318190789052359</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4215241135694441</v>
+        <v>0.4269243068384789</v>
       </c>
       <c r="C83" t="n">
-        <v>899389018.3221228</v>
+        <v>682987248.0342126</v>
       </c>
       <c r="D83" t="n">
-        <v>14770772848.80776</v>
+        <v>14968764185.77658</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02606525777700851</v>
+        <v>0.02595447703759888</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.340426387944893</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4269243068384789</v>
+        <v>0.4040429710490429</v>
       </c>
       <c r="C84" t="n">
-        <v>682987248.0342126</v>
+        <v>472977370.2764058</v>
       </c>
       <c r="D84" t="n">
-        <v>14968764185.77658</v>
+        <v>14171602326.78161</v>
       </c>
       <c r="E84" t="n">
-        <v>0.02595447703759888</v>
+        <v>0.02516502199469121</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-5.325502153026362</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4040429710490429</v>
+        <v>0.4042435553968207</v>
       </c>
       <c r="C85" t="n">
-        <v>472977370.2764058</v>
+        <v>550073849.867848</v>
       </c>
       <c r="D85" t="n">
-        <v>14171602326.78161</v>
+        <v>14151650831.07072</v>
       </c>
       <c r="E85" t="n">
-        <v>0.02516502199469122</v>
+        <v>0.02449844037996394</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.1407850379288367</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4042435553968207</v>
+        <v>0.3724793926507342</v>
       </c>
       <c r="C86" t="n">
-        <v>550073849.867848</v>
+        <v>1313554146.638899</v>
       </c>
       <c r="D86" t="n">
-        <v>14151650831.07072</v>
+        <v>13126700296.84208</v>
       </c>
       <c r="E86" t="n">
-        <v>0.02449844037996396</v>
+        <v>0.0236187636571345</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-7.242621701620222</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3724793926507342</v>
+        <v>0.3159747035749475</v>
       </c>
       <c r="C87" t="n">
-        <v>1313554146.638899</v>
+        <v>1208738101.73346</v>
       </c>
       <c r="D87" t="n">
-        <v>13126700296.84208</v>
+        <v>11086726499.35976</v>
       </c>
       <c r="E87" t="n">
-        <v>0.02361876365713451</v>
+        <v>0.02647036608059974</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-15.54064426970332</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3159747035749475</v>
+        <v>0.3698854969369306</v>
       </c>
       <c r="C88" t="n">
-        <v>1208738101.73346</v>
+        <v>1161366328.859609</v>
       </c>
       <c r="D88" t="n">
-        <v>11086726499.35976</v>
+        <v>12938175177.24457</v>
       </c>
       <c r="E88" t="n">
-        <v>0.02647036608059975</v>
+        <v>0.02649537659668414</v>
+      </c>
+      <c r="F88" t="n">
+        <v>16.69968748657895</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3698854969369306</v>
+        <v>0.3563338990302898</v>
       </c>
       <c r="C89" t="n">
-        <v>1161366328.859609</v>
+        <v>594772825.4540176</v>
       </c>
       <c r="D89" t="n">
-        <v>12938175177.24457</v>
+        <v>12444528721.08047</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02649537659668415</v>
+        <v>0.02687293587188521</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-3.815425663986383</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3563338990302898</v>
+        <v>0.3399324126919794</v>
       </c>
       <c r="C90" t="n">
-        <v>594772825.4540176</v>
+        <v>393108578.4016874</v>
       </c>
       <c r="D90" t="n">
-        <v>12444528721.08047</v>
+        <v>11909550599.84657</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02687293587188522</v>
+        <v>0.02785695926841619</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-4.298902218190648</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3399324126919794</v>
+        <v>0.3301781678010905</v>
       </c>
       <c r="C91" t="n">
-        <v>393108578.4016874</v>
+        <v>389879990.7489557</v>
       </c>
       <c r="D91" t="n">
-        <v>11909550599.84657</v>
+        <v>11537810805.96792</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0278569592684162</v>
+        <v>0.02917910850221237</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-3.121358700834942</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3301781678010905</v>
+        <v>0.3325812192248872</v>
       </c>
       <c r="C92" t="n">
-        <v>389879990.7489557</v>
+        <v>500083635.9388897</v>
       </c>
       <c r="D92" t="n">
-        <v>11537810805.96792</v>
+        <v>11680062072.0967</v>
       </c>
       <c r="E92" t="n">
-        <v>0.02917910850221237</v>
+        <v>0.03022916720278903</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.23291383886448</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3325812192248872</v>
+        <v>0.3379223378648112</v>
       </c>
       <c r="C93" t="n">
-        <v>500083635.9388897</v>
+        <v>318852397.6407765</v>
       </c>
       <c r="D93" t="n">
-        <v>11680062072.0967</v>
+        <v>11858620450.33373</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03022916720278904</v>
+        <v>0.03102729715461766</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.528745113980223</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3379223378648112</v>
+        <v>0.3334291636417461</v>
       </c>
       <c r="C94" t="n">
-        <v>318852397.6407765</v>
+        <v>288997279.3371637</v>
       </c>
       <c r="D94" t="n">
-        <v>11858620450.33373</v>
+        <v>11685096496.96288</v>
       </c>
       <c r="E94" t="n">
-        <v>0.03102729715461767</v>
+        <v>0.03196260209597238</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-1.463272680811478</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3334291636417461</v>
+        <v>0.3256427235965281</v>
       </c>
       <c r="C95" t="n">
-        <v>288997279.3371637</v>
+        <v>243926480.6401015</v>
       </c>
       <c r="D95" t="n">
-        <v>11685096496.96288</v>
+        <v>11413410277.38038</v>
       </c>
       <c r="E95" t="n">
-        <v>0.03196260209597239</v>
+        <v>0.03311259453834778</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-2.325066118650454</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3256427235965281</v>
+        <v>0.3271994657923801</v>
       </c>
       <c r="C96" t="n">
-        <v>243926480.6401015</v>
+        <v>230764123.8788255</v>
       </c>
       <c r="D96" t="n">
-        <v>11413410277.38038</v>
+        <v>11463611476.63802</v>
       </c>
       <c r="E96" t="n">
-        <v>0.03311259453834779</v>
+        <v>0.03390873291972089</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.43984399086332</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3271994657923801</v>
+        <v>0.329132821809475</v>
       </c>
       <c r="C97" t="n">
-        <v>230764123.8788255</v>
+        <v>159093236.6692909</v>
       </c>
       <c r="D97" t="n">
-        <v>11463611476.63802</v>
+        <v>11538888613.65879</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0339087329197209</v>
+        <v>0.03432374236973294</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.6566616216380661</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>0.329132821809475</v>
+        <v>0.3133823656668392</v>
       </c>
       <c r="C98" t="n">
-        <v>159093236.6692909</v>
+        <v>243968944.424986</v>
       </c>
       <c r="D98" t="n">
-        <v>11538888613.65879</v>
+        <v>10999857007.73569</v>
       </c>
       <c r="E98" t="n">
-        <v>0.03432374236973295</v>
+        <v>0.03573162740650444</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-4.671434346675651</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3133823656668392</v>
+        <v>0.3055463518516666</v>
       </c>
       <c r="C99" t="n">
-        <v>243968944.424986</v>
+        <v>410358624.1490884</v>
       </c>
       <c r="D99" t="n">
-        <v>10999857007.73569</v>
+        <v>10711858132.64395</v>
       </c>
       <c r="E99" t="n">
-        <v>0.03573162740650444</v>
+        <v>0.03751874228588942</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-2.618205626575043</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3055463518516666</v>
+        <v>0.3121956761966735</v>
       </c>
       <c r="C100" t="n">
-        <v>410358624.1490884</v>
+        <v>310040647.7476829</v>
       </c>
       <c r="D100" t="n">
-        <v>10711858132.64395</v>
+        <v>10978554936.15271</v>
       </c>
       <c r="E100" t="n">
-        <v>0.03751874228588943</v>
+        <v>0.03891610477098294</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.489734275849087</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3121956761966735</v>
+        <v>0.3193644619116083</v>
       </c>
       <c r="C101" t="n">
-        <v>310040647.7476829</v>
+        <v>330445669.4295261</v>
       </c>
       <c r="D101" t="n">
-        <v>10978554936.15271</v>
+        <v>11202669269.72091</v>
       </c>
       <c r="E101" t="n">
-        <v>0.03891610477098294</v>
+        <v>0.03985872942487845</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.041382812870762</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3193644619116083</v>
+        <v>0.3172693541802192</v>
       </c>
       <c r="C102" t="n">
-        <v>330445669.4295261</v>
+        <v>229337223.0318925</v>
       </c>
       <c r="D102" t="n">
-        <v>11202669269.72091</v>
+        <v>11115483394.81257</v>
       </c>
       <c r="E102" t="n">
-        <v>0.03985872942487845</v>
+        <v>0.04019373517617827</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.7782598308421984</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3172693541802192</v>
+        <v>0.3160263929630735</v>
       </c>
       <c r="C103" t="n">
-        <v>229337223.0318925</v>
+        <v>229728299.9417734</v>
       </c>
       <c r="D103" t="n">
-        <v>11115483394.81257</v>
+        <v>11085465954.12739</v>
       </c>
       <c r="E103" t="n">
-        <v>0.04019373517617828</v>
+        <v>0.04035555506721285</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.2700506997220575</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3160263929630735</v>
+        <v>0.3143280921031796</v>
       </c>
       <c r="C104" t="n">
-        <v>229728299.9417734</v>
+        <v>216285094.4041559</v>
       </c>
       <c r="D104" t="n">
-        <v>11085465954.12739</v>
+        <v>11008659410.72173</v>
       </c>
       <c r="E104" t="n">
-        <v>0.04035555506721285</v>
+        <v>0.04083121824883075</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.6928580514657057</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3143280921031796</v>
+        <v>0.3137726044195829</v>
       </c>
       <c r="C105" t="n">
-        <v>216285094.4041559</v>
+        <v>178897464.438695</v>
       </c>
       <c r="D105" t="n">
-        <v>11008659410.72173</v>
+        <v>11002188040.75625</v>
       </c>
       <c r="E105" t="n">
-        <v>0.04083121824883076</v>
+        <v>0.04063225754323016</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.0587843598755966</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3137726044195829</v>
+        <v>0.307043953795643</v>
       </c>
       <c r="C106" t="n">
-        <v>178897464.438695</v>
+        <v>297400876.2573056</v>
       </c>
       <c r="D106" t="n">
-        <v>11002188040.75625</v>
+        <v>10761215051.14446</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04063225754323017</v>
+        <v>0.03971414357192521</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-2.190227877574302</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307043953795643</v>
+        <v>0.310071686628266</v>
       </c>
       <c r="C107" t="n">
-        <v>297400876.2573056</v>
+        <v>186459858.8818399</v>
       </c>
       <c r="D107" t="n">
-        <v>10761215051.14446</v>
+        <v>10871692878.15709</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03971414357192522</v>
+        <v>0.0390360291635263</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.026629674135959</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>0.310071686628266</v>
+        <v>0.320363369993693</v>
       </c>
       <c r="C108" t="n">
-        <v>186459858.8818399</v>
+        <v>280053878.8090341</v>
       </c>
       <c r="D108" t="n">
-        <v>10871692878.15709</v>
+        <v>11241301722.29082</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0390360291635263</v>
+        <v>0.0377475857692369</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.399735885441801</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>0.320363369993693</v>
+        <v>0.3153375502816153</v>
       </c>
       <c r="C109" t="n">
-        <v>280053878.8090341</v>
+        <v>203650152.0533426</v>
       </c>
       <c r="D109" t="n">
-        <v>11241301722.29082</v>
+        <v>11049222186.19926</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0377475857692369</v>
+        <v>0.03659228355126509</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-1.708694783191123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3153375502816153</v>
+        <v>0.3199614261159225</v>
       </c>
       <c r="C110" t="n">
-        <v>203650152.0533426</v>
+        <v>185173347.5545493</v>
       </c>
       <c r="D110" t="n">
-        <v>11049222186.19926</v>
+        <v>11217744518.44936</v>
       </c>
       <c r="E110" t="n">
-        <v>0.03659228355126509</v>
+        <v>0.03583936784702216</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.525196338802792</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3199614261159225</v>
+        <v>0.3208384826526819</v>
       </c>
       <c r="C111" t="n">
-        <v>185173347.5545493</v>
+        <v>229698667.918411</v>
       </c>
       <c r="D111" t="n">
-        <v>11217744518.44936</v>
+        <v>11266463422.23117</v>
       </c>
       <c r="E111" t="n">
-        <v>0.03583936784702216</v>
+        <v>0.03475882107286475</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.4343021335677433</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3208384826526819</v>
+        <v>0.323576351728209</v>
       </c>
       <c r="C112" t="n">
-        <v>229698667.918411</v>
+        <v>175131072.8269119</v>
       </c>
       <c r="D112" t="n">
-        <v>11266463422.23117</v>
+        <v>11337246348.08319</v>
       </c>
       <c r="E112" t="n">
-        <v>0.03475882107286476</v>
+        <v>0.03101884292070805</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.6282621546736422</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>0.323576351728209</v>
+        <v>0.3203095895767889</v>
       </c>
       <c r="C113" t="n">
-        <v>175131072.8269119</v>
+        <v>205247917.1306714</v>
       </c>
       <c r="D113" t="n">
-        <v>11337246348.08319</v>
+        <v>11229740361.42466</v>
       </c>
       <c r="E113" t="n">
-        <v>0.03101884292070805</v>
+        <v>0.02571929265640768</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.9482548350615461</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3203095895767889</v>
+        <v>0.3191571645334378</v>
       </c>
       <c r="C114" t="n">
-        <v>205247917.1306714</v>
+        <v>159871857.6968361</v>
       </c>
       <c r="D114" t="n">
-        <v>11229740361.42466</v>
+        <v>11171270420.65604</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02571929265640769</v>
+        <v>0.02176561843282847</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.5206704597504719</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3191571645334378</v>
+        <v>0.310985114005868</v>
       </c>
       <c r="C115" t="n">
-        <v>159871857.6968361</v>
+        <v>217458742.3025737</v>
       </c>
       <c r="D115" t="n">
-        <v>11171270420.65604</v>
+        <v>10911580962.25035</v>
       </c>
       <c r="E115" t="n">
-        <v>0.02176561843282848</v>
+        <v>0.01655365538025746</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-2.324618853783333</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>0.310985114005868</v>
+        <v>0.3149178263848167</v>
       </c>
       <c r="C116" t="n">
-        <v>217458742.3025737</v>
+        <v>170856072.8604676</v>
       </c>
       <c r="D116" t="n">
-        <v>10911580962.25035</v>
+        <v>11042204197.99166</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01655365538025748</v>
+        <v>0.01400054905241632</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.197106415589166</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3149178263848167</v>
+        <v>0.3124087450936067</v>
       </c>
       <c r="C117" t="n">
-        <v>170856072.8604676</v>
+        <v>161879381.5627049</v>
       </c>
       <c r="D117" t="n">
-        <v>11042204197.99166</v>
+        <v>10947127564.14213</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01400054905241634</v>
+        <v>0.01407795326832827</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.861029484193232</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3124087450936067</v>
+        <v>0.3131223507060465</v>
       </c>
       <c r="C118" t="n">
-        <v>161879381.5627049</v>
+        <v>89086469.11487137</v>
       </c>
       <c r="D118" t="n">
-        <v>10947127564.14213</v>
+        <v>10955129108.92272</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01407795326832829</v>
+        <v>0.01104218104914889</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.07309264219050871</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3131223507060465</v>
+        <v>0.3082595033901836</v>
       </c>
       <c r="C119" t="n">
-        <v>89086469.11487137</v>
+        <v>117231304.4271958</v>
       </c>
       <c r="D119" t="n">
-        <v>10955129108.92272</v>
+        <v>10795338642.16432</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01104218104914891</v>
+        <v>0.009059633552100042</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-1.458590448087549</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3082595033901836</v>
+        <v>0.3071820518723824</v>
       </c>
       <c r="C120" t="n">
-        <v>117231304.4271958</v>
+        <v>182275972.1912163</v>
       </c>
       <c r="D120" t="n">
-        <v>10795338642.16432</v>
+        <v>10765213994.41296</v>
       </c>
       <c r="E120" t="n">
-        <v>0.009059633552100068</v>
+        <v>0.008463113672386412</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.2790523646354348</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3071820518723824</v>
+        <v>0.3122753240931365</v>
       </c>
       <c r="C121" t="n">
-        <v>182275972.1912163</v>
+        <v>322716718.2445533</v>
       </c>
       <c r="D121" t="n">
-        <v>10765213994.41296</v>
+        <v>10947773351.02831</v>
       </c>
       <c r="E121" t="n">
-        <v>0.008463113672386439</v>
+        <v>0.008230762367359324</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.695826545669266</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3122753240931365</v>
+        <v>0.3083642500942882</v>
       </c>
       <c r="C122" t="n">
-        <v>322716718.2445533</v>
+        <v>266724848.7799387</v>
       </c>
       <c r="D122" t="n">
-        <v>10947773351.02831</v>
+        <v>10807853982.68882</v>
       </c>
       <c r="E122" t="n">
-        <v>0.008230762367359354</v>
+        <v>0.00791109683407522</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-1.278062340652619</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3083642500942882</v>
+        <v>0.299540773872443</v>
       </c>
       <c r="C123" t="n">
-        <v>266724848.7799387</v>
+        <v>231166876.2783708</v>
       </c>
       <c r="D123" t="n">
-        <v>10807853982.68882</v>
+        <v>10507439028.02962</v>
       </c>
       <c r="E123" t="n">
-        <v>0.007911096834075251</v>
+        <v>0.007500308062694776</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-2.779598569155195</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>0.299540773872443</v>
+        <v>0.2644755733706918</v>
       </c>
       <c r="C124" t="n">
-        <v>231166876.2783708</v>
+        <v>450953840.6379517</v>
       </c>
       <c r="D124" t="n">
-        <v>10507439028.02962</v>
+        <v>9209359368.259087</v>
       </c>
       <c r="E124" t="n">
-        <v>0.007500308062694807</v>
+        <v>0.01142069959326902</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-12.35391094164597</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2644755733706918</v>
+        <v>0.2674500196631341</v>
       </c>
       <c r="C125" t="n">
-        <v>450953840.6379517</v>
+        <v>357667134.6152626</v>
       </c>
       <c r="D125" t="n">
-        <v>9209359368.259087</v>
+        <v>9371061912.52424</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01142069959326904</v>
+        <v>0.01393504032575741</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.755850084670141</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2674500196631341</v>
+        <v>0.2666027979592194</v>
       </c>
       <c r="C126" t="n">
-        <v>357667134.6152626</v>
+        <v>200137566.9848625</v>
       </c>
       <c r="D126" t="n">
-        <v>9371061912.52424</v>
+        <v>9380446763.925055</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01393504032575743</v>
+        <v>0.01583715783927512</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.1001471496871797</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2666027979592194</v>
+        <v>0.2528340472956252</v>
       </c>
       <c r="C127" t="n">
-        <v>200137566.9848625</v>
+        <v>234453354.993819</v>
       </c>
       <c r="D127" t="n">
-        <v>9380446763.925055</v>
+        <v>8873184620.700447</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01583715783927514</v>
+        <v>0.01847304050598205</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-5.407654411252738</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>0.2528340472956252</v>
+        <v>0.2594727994205192</v>
       </c>
       <c r="C128" t="n">
-        <v>234453354.993819</v>
+        <v>193006846.6822638</v>
       </c>
       <c r="D128" t="n">
-        <v>8873184620.700447</v>
+        <v>9090926650.088385</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01847304050598206</v>
+        <v>0.02034754500975508</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.453933268557962</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2594727994205192</v>
+        <v>0.2532859460914755</v>
       </c>
       <c r="C129" t="n">
-        <v>193006846.6822638</v>
+        <v>215629099.9968907</v>
       </c>
       <c r="D129" t="n">
-        <v>9090926650.088385</v>
+        <v>8877957164.938986</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02034754500975509</v>
+        <v>0.02243788415296604</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-2.342659811773184</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2532859460914755</v>
+        <v>0.2566585951875997</v>
       </c>
       <c r="C130" t="n">
-        <v>215629099.9968907</v>
+        <v>181065917.5876558</v>
       </c>
       <c r="D130" t="n">
-        <v>8877957164.938986</v>
+        <v>8992871450.40732</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02243788415296605</v>
+        <v>0.02392547021515707</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.294377561565141</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2566585951875997</v>
+        <v>0.2598711295614552</v>
       </c>
       <c r="C131" t="n">
-        <v>181065917.5876558</v>
+        <v>184364462.2464073</v>
       </c>
       <c r="D131" t="n">
-        <v>8992871450.40732</v>
+        <v>9102643325.100744</v>
       </c>
       <c r="E131" t="n">
-        <v>0.02392547021515708</v>
+        <v>0.02484245097108965</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.220654329362758</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2598711295614552</v>
+        <v>0.2595962174996505</v>
       </c>
       <c r="C132" t="n">
-        <v>184364462.2464073</v>
+        <v>89276162.84465127</v>
       </c>
       <c r="D132" t="n">
-        <v>9102643325.100744</v>
+        <v>9108089569.82464</v>
       </c>
       <c r="E132" t="n">
-        <v>0.02484245097108966</v>
+        <v>0.02564068410040352</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.05983146355825752</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2595962174996505</v>
+        <v>0.2596384912708029</v>
       </c>
       <c r="C133" t="n">
-        <v>89276162.84465127</v>
+        <v>115170654.4120136</v>
       </c>
       <c r="D133" t="n">
-        <v>9108089569.82464</v>
+        <v>9092589291.553711</v>
       </c>
       <c r="E133" t="n">
-        <v>0.02564068410040353</v>
+        <v>0.0263018228939842</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.1701814431237292</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>0.2596384912708029</v>
+        <v>0.2653712277296782</v>
       </c>
       <c r="C134" t="n">
-        <v>115170654.4120136</v>
+        <v>155086399.8856942</v>
       </c>
       <c r="D134" t="n">
-        <v>9092589291.553711</v>
+        <v>9291688438.037796</v>
       </c>
       <c r="E134" t="n">
-        <v>0.02630182289398421</v>
+        <v>0.02662447505538364</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.189685909040584</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>0.2653712277296782</v>
+        <v>0.2604918020443702</v>
       </c>
       <c r="C135" t="n">
-        <v>155086399.8856942</v>
+        <v>147957477.7316817</v>
       </c>
       <c r="D135" t="n">
-        <v>9291688438.037796</v>
+        <v>9120634176.326611</v>
       </c>
       <c r="E135" t="n">
-        <v>0.02662447505538365</v>
+        <v>0.02704018915837169</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-1.840938413420456</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2604918020443702</v>
+        <v>0.2484055272755931</v>
       </c>
       <c r="C136" t="n">
-        <v>147957477.7316817</v>
+        <v>219098207.2130911</v>
       </c>
       <c r="D136" t="n">
-        <v>9120634176.326611</v>
+        <v>8706852770.635092</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0270401891583717</v>
+        <v>0.02803970253968844</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-4.536761344573215</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>0.2484055272755931</v>
+        <v>0.2443147559531476</v>
       </c>
       <c r="C137" t="n">
-        <v>219098207.2130911</v>
+        <v>228559837.8216271</v>
       </c>
       <c r="D137" t="n">
-        <v>8706852770.635092</v>
+        <v>8562205774.727905</v>
       </c>
       <c r="E137" t="n">
-        <v>0.02803970253968845</v>
+        <v>0.02899947496600785</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-1.661300583777248</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2443147559531476</v>
+        <v>0.2457120108708049</v>
       </c>
       <c r="C138" t="n">
-        <v>228559837.8216271</v>
+        <v>171616881.2485749</v>
       </c>
       <c r="D138" t="n">
-        <v>8562205774.727905</v>
+        <v>8607991177.831968</v>
       </c>
       <c r="E138" t="n">
-        <v>0.02899947496600785</v>
+        <v>0.02934248924137187</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.534738410973512</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2457120108708049</v>
+        <v>0.2463982942185594</v>
       </c>
       <c r="C139" t="n">
-        <v>171616881.2485749</v>
+        <v>155399786.8336863</v>
       </c>
       <c r="D139" t="n">
-        <v>8607991177.831968</v>
+        <v>8639667066.713358</v>
       </c>
       <c r="E139" t="n">
-        <v>0.02934248924137187</v>
+        <v>0.02963781960087124</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.3679823576372199</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2463982942185594</v>
+        <v>0.2499377242799236</v>
       </c>
       <c r="C140" t="n">
-        <v>155399786.8336863</v>
+        <v>118008081.8857778</v>
       </c>
       <c r="D140" t="n">
-        <v>8639667066.713358</v>
+        <v>8760815157.937347</v>
       </c>
       <c r="E140" t="n">
-        <v>0.02963781960087125</v>
+        <v>0.02941423317574032</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.402231015252253</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2499377242799236</v>
+        <v>0.2539484633597189</v>
       </c>
       <c r="C141" t="n">
-        <v>118008081.8857778</v>
+        <v>166467580.3302494</v>
       </c>
       <c r="D141" t="n">
-        <v>8760815157.937347</v>
+        <v>8909442495.772968</v>
       </c>
       <c r="E141" t="n">
-        <v>0.02941423317574033</v>
+        <v>0.02882332674731393</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.696501240537684</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2539484633597189</v>
+        <v>0.2531435084634493</v>
       </c>
       <c r="C142" t="n">
-        <v>166467580.3302494</v>
+        <v>158429114.0562578</v>
       </c>
       <c r="D142" t="n">
-        <v>8909442495.772968</v>
+        <v>8866077129.565514</v>
       </c>
       <c r="E142" t="n">
-        <v>0.02882332674731393</v>
+        <v>0.02790585504203994</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.4867349020775347</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>0.2531435084634493</v>
+        <v>0.2679479211035937</v>
       </c>
       <c r="C143" t="n">
-        <v>158429114.0562578</v>
+        <v>308444828.8542072</v>
       </c>
       <c r="D143" t="n">
-        <v>8866077129.565514</v>
+        <v>9386328191.022104</v>
       </c>
       <c r="E143" t="n">
-        <v>0.02790585504203995</v>
+        <v>0.02667996843589653</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5.867883324877932</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>0.2679479211035937</v>
+        <v>0.269366459596555</v>
       </c>
       <c r="C144" t="n">
-        <v>308444828.8542072</v>
+        <v>186258828.2803131</v>
       </c>
       <c r="D144" t="n">
-        <v>9386328191.022104</v>
+        <v>9439944979.112</v>
       </c>
       <c r="E144" t="n">
-        <v>0.02667996843589654</v>
+        <v>0.02533549137086567</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.5712221754740954</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>0.269366459596555</v>
+        <v>0.2788781186042588</v>
       </c>
       <c r="C145" t="n">
-        <v>186258828.2803131</v>
+        <v>353554254.3678933</v>
       </c>
       <c r="D145" t="n">
-        <v>9439944979.112</v>
+        <v>9774060225.656029</v>
       </c>
       <c r="E145" t="n">
-        <v>0.02533549137086568</v>
+        <v>0.02433691995170277</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3.539377054456727</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>0.2788781186042588</v>
+        <v>0.2774524659918043</v>
       </c>
       <c r="C146" t="n">
-        <v>353554254.3678933</v>
+        <v>173174628.342618</v>
       </c>
       <c r="D146" t="n">
-        <v>9774060225.656029</v>
+        <v>9715964551.298452</v>
       </c>
       <c r="E146" t="n">
-        <v>0.02433691995170278</v>
+        <v>0.02298197687241589</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.5943862940917866</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>0.2774524659918043</v>
+        <v>0.2936152047136951</v>
       </c>
       <c r="C147" t="n">
-        <v>173174628.342618</v>
+        <v>413304042.3639351</v>
       </c>
       <c r="D147" t="n">
-        <v>9715964551.298452</v>
+        <v>10300606515.15158</v>
       </c>
       <c r="E147" t="n">
-        <v>0.02298197687241589</v>
+        <v>0.02204419011955559</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6.017333233013877</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2936152047136951</v>
+        <v>0.3171707899055263</v>
       </c>
       <c r="C148" t="n">
-        <v>413304042.3639351</v>
+        <v>974414951.91249</v>
       </c>
       <c r="D148" t="n">
-        <v>10300606515.15158</v>
+        <v>11122330043.38504</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0220441901195556</v>
+        <v>0.02232708881528223</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7.9774285817515</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3171707899055263</v>
+        <v>0.3226584671571472</v>
       </c>
       <c r="C149" t="n">
-        <v>974414951.91249</v>
+        <v>445919255.6846144</v>
       </c>
       <c r="D149" t="n">
-        <v>11122330043.38504</v>
+        <v>11292662260.68441</v>
       </c>
       <c r="E149" t="n">
-        <v>0.02232708881528224</v>
+        <v>0.02330556150789855</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.53144365106006</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3226584671571472</v>
+        <v>0.3234089195684316</v>
       </c>
       <c r="C150" t="n">
-        <v>445919255.6846144</v>
+        <v>354859513.3399888</v>
       </c>
       <c r="D150" t="n">
-        <v>11292662260.68441</v>
+        <v>11308683137.51761</v>
       </c>
       <c r="E150" t="n">
-        <v>0.02330556150789856</v>
+        <v>0.0243457085729291</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.1418697953004422</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3234089195684316</v>
+        <v>0.3300247991715599</v>
       </c>
       <c r="C151" t="n">
-        <v>354859513.3399888</v>
+        <v>562673087.8716764</v>
       </c>
       <c r="D151" t="n">
-        <v>11308683137.51761</v>
+        <v>11570628015.20414</v>
       </c>
       <c r="E151" t="n">
-        <v>0.02434570857292911</v>
+        <v>0.02556172960619979</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.316316360633541</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3300247991715599</v>
+        <v>0.3453714599228635</v>
       </c>
       <c r="C152" t="n">
-        <v>562673087.8716764</v>
+        <v>410767751.6782783</v>
       </c>
       <c r="D152" t="n">
-        <v>11570628015.20414</v>
+        <v>12093797768.19843</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0255617296061998</v>
+        <v>0.02814604582705634</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4.521532904755321</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3453714599228635</v>
+        <v>0.3519119190637228</v>
       </c>
       <c r="C153" t="n">
-        <v>410767751.6782783</v>
+        <v>835035759.7752243</v>
       </c>
       <c r="D153" t="n">
-        <v>12093797768.19843</v>
+        <v>12362646517.73637</v>
       </c>
       <c r="E153" t="n">
-        <v>0.02814604582705635</v>
+        <v>0.03129086115834325</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.223029975289492</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3519119190637228</v>
+        <v>0.3504573219603482</v>
       </c>
       <c r="C154" t="n">
-        <v>835035759.7752243</v>
+        <v>390932534.538554</v>
       </c>
       <c r="D154" t="n">
-        <v>12362646517.73637</v>
+        <v>12260892656.87663</v>
       </c>
       <c r="E154" t="n">
-        <v>0.03129086115834327</v>
+        <v>0.03411810930114532</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.8230750649851459</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3504573219603482</v>
+        <v>0.3502826492228772</v>
       </c>
       <c r="C155" t="n">
-        <v>390932534.538554</v>
+        <v>445014768.5011581</v>
       </c>
       <c r="D155" t="n">
-        <v>12260892656.87663</v>
+        <v>12264237310.30529</v>
       </c>
       <c r="E155" t="n">
-        <v>0.03411810930114533</v>
+        <v>0.03652566097105214</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.02727903687165245</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3502826492228772</v>
+        <v>0.3465310982996337</v>
       </c>
       <c r="C156" t="n">
-        <v>445014768.5011581</v>
+        <v>300478175.2813681</v>
       </c>
       <c r="D156" t="n">
-        <v>12264237310.30529</v>
+        <v>12137020401.33495</v>
       </c>
       <c r="E156" t="n">
-        <v>0.03652566097105215</v>
+        <v>0.03834854663951563</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-1.037299799013569</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3465310982996337</v>
+        <v>0.3278558875213031</v>
       </c>
       <c r="C157" t="n">
-        <v>300478175.2813681</v>
+        <v>452576275.4706946</v>
       </c>
       <c r="D157" t="n">
-        <v>12137020401.33495</v>
+        <v>11479445708.9958</v>
       </c>
       <c r="E157" t="n">
-        <v>0.03834854663951563</v>
+        <v>0.03874825017136335</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-5.417925245201238</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3278558875213031</v>
+        <v>0.3395379607151923</v>
       </c>
       <c r="C158" t="n">
-        <v>452576275.4706946</v>
+        <v>245283868.6022591</v>
       </c>
       <c r="D158" t="n">
-        <v>11479445708.9958</v>
+        <v>11908339088.06376</v>
       </c>
       <c r="E158" t="n">
-        <v>0.03874825017136335</v>
+        <v>0.03963108911860707</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3.736185439091888</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3395379607151923</v>
+        <v>0.3636230849781876</v>
       </c>
       <c r="C159" t="n">
-        <v>245283868.6022591</v>
+        <v>363818582.113123</v>
       </c>
       <c r="D159" t="n">
-        <v>11908339088.06376</v>
+        <v>12706691031.13709</v>
       </c>
       <c r="E159" t="n">
-        <v>0.03963108911860707</v>
+        <v>0.0413513307239627</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6.704141838500033</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3636230849781876</v>
+        <v>0.3693368979552423</v>
       </c>
       <c r="C160" t="n">
-        <v>363818582.113123</v>
+        <v>618878365.285699</v>
       </c>
       <c r="D160" t="n">
-        <v>12706691031.13709</v>
+        <v>12927454159.66188</v>
       </c>
       <c r="E160" t="n">
-        <v>0.04135133072396271</v>
+        <v>0.0431117031429619</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.737377008568308</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>0.3693368979552423</v>
+        <v>0.3775456958544885</v>
       </c>
       <c r="C161" t="n">
-        <v>618878365.285699</v>
+        <v>603642881.0813547</v>
       </c>
       <c r="D161" t="n">
-        <v>12927454159.66188</v>
+        <v>13229237078.19317</v>
       </c>
       <c r="E161" t="n">
-        <v>0.04311170314296191</v>
+        <v>0.04504537692182516</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.33443425754285</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>0.3775456958544885</v>
+        <v>0.3764909874045472</v>
       </c>
       <c r="C162" t="n">
-        <v>603642881.0813547</v>
+        <v>507459192.9828227</v>
       </c>
       <c r="D162" t="n">
-        <v>13229237078.19317</v>
+        <v>13188812335.29959</v>
       </c>
       <c r="E162" t="n">
-        <v>0.04504537692182516</v>
+        <v>0.04649243716198099</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.3055712332816318</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3764909874045472</v>
+        <v>0.359068699526837</v>
       </c>
       <c r="C163" t="n">
-        <v>507459192.9828227</v>
+        <v>351284235.0738831</v>
       </c>
       <c r="D163" t="n">
-        <v>13188812335.29959</v>
+        <v>12577247529.52521</v>
       </c>
       <c r="E163" t="n">
-        <v>0.046492437161981</v>
+        <v>0.04679641440853152</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-4.636996798699933</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>0.359068699526837</v>
+        <v>0.3742839180589751</v>
       </c>
       <c r="C164" t="n">
-        <v>351284235.0738831</v>
+        <v>389497975.6146865</v>
       </c>
       <c r="D164" t="n">
-        <v>12577247529.52521</v>
+        <v>13107855671.30252</v>
       </c>
       <c r="E164" t="n">
-        <v>0.04679641440853152</v>
+        <v>0.04768183132981529</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4.218793822191258</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3742839180589751</v>
+        <v>0.3807430116028526</v>
       </c>
       <c r="C165" t="n">
-        <v>389497975.6146865</v>
+        <v>462182515.7428498</v>
       </c>
       <c r="D165" t="n">
-        <v>13107855671.30252</v>
+        <v>13350884665.90454</v>
       </c>
       <c r="E165" t="n">
-        <v>0.04768183132981529</v>
+        <v>0.04838174982580504</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.854071334750018</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>0.3807430116028526</v>
+        <v>0.3898886047145345</v>
       </c>
       <c r="C166" t="n">
-        <v>462182515.7428498</v>
+        <v>360808198.5965186</v>
       </c>
       <c r="D166" t="n">
-        <v>13350884665.90454</v>
+        <v>13626543158.56087</v>
       </c>
       <c r="E166" t="n">
-        <v>0.04838174982580504</v>
+        <v>0.04861060335367466</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2.064720799815589</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3898886047145345</v>
+        <v>0.3826326737967218</v>
       </c>
       <c r="C167" t="n">
-        <v>360808198.5965186</v>
+        <v>366609117.2041258</v>
       </c>
       <c r="D167" t="n">
-        <v>13626543158.56087</v>
+        <v>13394216456.28302</v>
       </c>
       <c r="E167" t="n">
-        <v>0.04861060335367466</v>
+        <v>0.04781304957000503</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-1.704957006149332</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3826326737967218</v>
+        <v>0.3968034665567562</v>
       </c>
       <c r="C168" t="n">
-        <v>366609117.2041258</v>
+        <v>334441514.1232314</v>
       </c>
       <c r="D168" t="n">
-        <v>13394216456.28302</v>
+        <v>13886339439.64204</v>
       </c>
       <c r="E168" t="n">
-        <v>0.04781304957000503</v>
+        <v>0.04725390772765771</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.674145366884596</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3968034665567562</v>
+        <v>0.3732809929059061</v>
       </c>
       <c r="C169" t="n">
-        <v>334441514.1232314</v>
+        <v>406195562.7680928</v>
       </c>
       <c r="D169" t="n">
-        <v>13886339439.64204</v>
+        <v>13050686924.40031</v>
       </c>
       <c r="E169" t="n">
-        <v>0.04725390772765771</v>
+        <v>0.04525304499248265</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-6.017802739692102</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3732809929059061</v>
+        <v>0.3923269344272565</v>
       </c>
       <c r="C170" t="n">
-        <v>406195562.7680928</v>
+        <v>485110346.3061087</v>
       </c>
       <c r="D170" t="n">
-        <v>13050686924.40031</v>
+        <v>13739947311.51524</v>
       </c>
       <c r="E170" t="n">
-        <v>0.04525304499248265</v>
+        <v>0.04366860169350936</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5.281410787858576</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3923269344272565</v>
+        <v>0.3978843660000393</v>
       </c>
       <c r="C171" t="n">
-        <v>485110346.3061087</v>
+        <v>506205683.8664071</v>
       </c>
       <c r="D171" t="n">
-        <v>13739947311.51524</v>
+        <v>13941650401.95893</v>
       </c>
       <c r="E171" t="n">
-        <v>0.04366860169350936</v>
+        <v>0.04200766793695191</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.468004831973713</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3978843660000393</v>
+        <v>0.3994952951343042</v>
       </c>
       <c r="C172" t="n">
-        <v>506205683.8664071</v>
+        <v>573959330.9986911</v>
       </c>
       <c r="D172" t="n">
-        <v>13941650401.95893</v>
+        <v>14004431006.11012</v>
       </c>
       <c r="E172" t="n">
-        <v>0.04200766793695191</v>
+        <v>0.03968864073337485</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.4503097003664136</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>0.3994952951343042</v>
+        <v>0.4049394371081902</v>
       </c>
       <c r="C173" t="n">
-        <v>573959330.9986911</v>
+        <v>390999633.4526748</v>
       </c>
       <c r="D173" t="n">
-        <v>14004431006.11012</v>
+        <v>14195163826.60968</v>
       </c>
       <c r="E173" t="n">
-        <v>0.03968864073337485</v>
+        <v>0.03806421831756028</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.361946232705513</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4049394371081902</v>
+        <v>0.400012041130663</v>
       </c>
       <c r="C174" t="n">
-        <v>390999633.4526748</v>
+        <v>263084740.4515381</v>
       </c>
       <c r="D174" t="n">
-        <v>14195163826.60968</v>
+        <v>14050882551.24164</v>
       </c>
       <c r="E174" t="n">
-        <v>0.03806421831756028</v>
+        <v>0.03567119612365745</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-1.016411484435098</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>0.400012041130663</v>
+        <v>0.3928544917532688</v>
       </c>
       <c r="C175" t="n">
-        <v>263084740.4515381</v>
+        <v>350978984.6150683</v>
       </c>
       <c r="D175" t="n">
-        <v>14050882551.24164</v>
+        <v>13784689201.47828</v>
       </c>
       <c r="E175" t="n">
-        <v>0.03567119612365745</v>
+        <v>0.03310139202845414</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-1.89449558625655</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3928544917532688</v>
+        <v>0.3830234267080654</v>
       </c>
       <c r="C176" t="n">
-        <v>350978984.6150683</v>
+        <v>341533271.40342</v>
       </c>
       <c r="D176" t="n">
-        <v>13784689201.47828</v>
+        <v>13413615316.69828</v>
       </c>
       <c r="E176" t="n">
-        <v>0.03310139202845414</v>
+        <v>0.02940040218483256</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-2.691927829175911</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>0.3830234267080654</v>
+        <v>0.399502836089133</v>
       </c>
       <c r="C177" t="n">
-        <v>341533271.40342</v>
+        <v>366338560.6024305</v>
       </c>
       <c r="D177" t="n">
-        <v>13413615316.69828</v>
+        <v>13995112011.82254</v>
       </c>
       <c r="E177" t="n">
-        <v>0.02940040218483256</v>
+        <v>0.02694106288917381</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4.335122794228141</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>0.399502836089133</v>
+        <v>0.3946134010769468</v>
       </c>
       <c r="C178" t="n">
-        <v>366338560.6024305</v>
+        <v>342730685.9609066</v>
       </c>
       <c r="D178" t="n">
-        <v>13995112011.82254</v>
+        <v>13838767400.63826</v>
       </c>
       <c r="E178" t="n">
-        <v>0.02694106288917381</v>
+        <v>0.02565167550665998</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-1.117137262297097</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>0.3946134010769468</v>
+        <v>0.3625319604295746</v>
       </c>
       <c r="C179" t="n">
-        <v>342730685.9609066</v>
+        <v>490910349.1745899</v>
       </c>
       <c r="D179" t="n">
-        <v>13838767400.63826</v>
+        <v>12700635423.23816</v>
       </c>
       <c r="E179" t="n">
-        <v>0.02565167550665998</v>
+        <v>0.02410708426394882</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-8.224229401728433</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>0.3625319604295746</v>
+        <v>0.3590852498770424</v>
       </c>
       <c r="C180" t="n">
-        <v>490910349.1745899</v>
+        <v>360263656.7773849</v>
       </c>
       <c r="D180" t="n">
-        <v>12700635423.23816</v>
+        <v>12591878338.21519</v>
       </c>
       <c r="E180" t="n">
-        <v>0.02410708426394882</v>
+        <v>0.02249376809131984</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.8563121560356879</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>0.3590852498770424</v>
+        <v>0.3701208341223441</v>
       </c>
       <c r="C181" t="n">
-        <v>360263656.7773849</v>
+        <v>224862636.9996321</v>
       </c>
       <c r="D181" t="n">
-        <v>12591878338.21519</v>
+        <v>12978050863.77683</v>
       </c>
       <c r="E181" t="n">
-        <v>0.02249376809131984</v>
+        <v>0.02103299916844632</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3.066838125251281</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>0.3701208341223441</v>
+        <v>0.3642624596931363</v>
       </c>
       <c r="C182" t="n">
-        <v>224862636.9996321</v>
+        <v>233568066.5314862</v>
       </c>
       <c r="D182" t="n">
-        <v>12978050863.77683</v>
+        <v>12779268330.27777</v>
       </c>
       <c r="E182" t="n">
-        <v>0.02103299916844632</v>
+        <v>0.02042866848780029</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-1.531682496744435</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>0.3642624596931363</v>
+        <v>0.3601597379165101</v>
       </c>
       <c r="C183" t="n">
-        <v>233568066.5314862</v>
+        <v>372826401.5056911</v>
       </c>
       <c r="D183" t="n">
-        <v>12779268330.27777</v>
+        <v>12621979856.3877</v>
       </c>
       <c r="E183" t="n">
-        <v>0.02042866848780029</v>
+        <v>0.02016994843894886</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-1.230809697589696</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>0.3601597379165101</v>
+        <v>0.3872922178928387</v>
       </c>
       <c r="C184" t="n">
-        <v>372826401.5056911</v>
+        <v>498029508.5868461</v>
       </c>
       <c r="D184" t="n">
-        <v>12621979856.3877</v>
+        <v>13575572016.58271</v>
       </c>
       <c r="E184" t="n">
-        <v>0.02016994843894886</v>
+        <v>0.01976420296804671</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7.555012534047245</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>0.3872922178928387</v>
+        <v>0.4130852886604641</v>
       </c>
       <c r="C185" t="n">
-        <v>498029508.5868461</v>
+        <v>484645105.6749792</v>
       </c>
       <c r="D185" t="n">
-        <v>13575572016.58271</v>
+        <v>14353519091.99043</v>
       </c>
       <c r="E185" t="n">
-        <v>0.01976420296804671</v>
+        <v>0.02028015518765033</v>
+      </c>
+      <c r="F185" t="n">
+        <v>5.730492051881475</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4130852886604641</v>
+        <v>0.390815338003529</v>
       </c>
       <c r="C186" t="n">
-        <v>484645105.6749792</v>
+        <v>565088424.0493953</v>
       </c>
       <c r="D186" t="n">
-        <v>14353519091.99043</v>
+        <v>13639995276.21766</v>
       </c>
       <c r="E186" t="n">
-        <v>0.02028015518765033</v>
+        <v>0.01951067960435781</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-4.971072328673253</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>0.390815338003529</v>
+        <v>0.4050167658008515</v>
       </c>
       <c r="C187" t="n">
-        <v>565088424.0493953</v>
+        <v>417077588.7908471</v>
       </c>
       <c r="D187" t="n">
-        <v>13639995276.21766</v>
+        <v>14191016122.50701</v>
       </c>
       <c r="E187" t="n">
-        <v>0.01951067960435781</v>
+        <v>0.01745402928710925</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4.039743673885998</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4050167658008515</v>
+        <v>0.4069117513719228</v>
       </c>
       <c r="C188" t="n">
-        <v>417077588.7908471</v>
+        <v>322186852.7354176</v>
       </c>
       <c r="D188" t="n">
-        <v>14191016122.50701</v>
+        <v>14237828858.4942</v>
       </c>
       <c r="E188" t="n">
-        <v>0.01745402928710925</v>
+        <v>0.01608142517004609</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.3298758565494442</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>0.4069117513719228</v>
+        <v>0.3994330904593501</v>
       </c>
       <c r="C189" t="n">
-        <v>322186852.7354176</v>
+        <v>342488595.3794008</v>
       </c>
       <c r="D189" t="n">
-        <v>14237828858.4942</v>
+        <v>14043747857.23161</v>
       </c>
       <c r="E189" t="n">
-        <v>0.01608142517004609</v>
+        <v>0.015824197333453</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-1.36313621403592</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>0.3994330904593501</v>
+        <v>0.4030820111109957</v>
       </c>
       <c r="C190" t="n">
-        <v>342488595.3794008</v>
+        <v>382673397.1139116</v>
       </c>
       <c r="D190" t="n">
-        <v>14043747857.23161</v>
+        <v>14132819917.78625</v>
       </c>
       <c r="E190" t="n">
-        <v>0.015824197333453</v>
+        <v>0.01583882200001939</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.6342470789147292</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4030820111109957</v>
+        <v>0.3924300177697884</v>
       </c>
       <c r="C191" t="n">
-        <v>382673397.1139116</v>
+        <v>393877647.4711077</v>
       </c>
       <c r="D191" t="n">
-        <v>14132819917.78625</v>
+        <v>13736559470.46621</v>
       </c>
       <c r="E191" t="n">
-        <v>0.01583882200001939</v>
+        <v>0.0157793086347391</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-2.803831433678339</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>0.3924300177697884</v>
+        <v>0.3887994247157063</v>
       </c>
       <c r="C192" t="n">
-        <v>393877647.4711077</v>
+        <v>394239750.1717145</v>
       </c>
       <c r="D192" t="n">
-        <v>13736559470.46621</v>
+        <v>13650328636.79957</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0157793086347391</v>
+        <v>0.01565430410618568</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.6277469540465153</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>0.3887994247157063</v>
+        <v>0.3837197111247364</v>
       </c>
       <c r="C193" t="n">
-        <v>394239750.1717145</v>
+        <v>290508904.5233393</v>
       </c>
       <c r="D193" t="n">
-        <v>13650328636.79957</v>
+        <v>13422878914.71544</v>
       </c>
       <c r="E193" t="n">
-        <v>0.01565430410618568</v>
+        <v>0.01473135899172972</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-1.666258213527205</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>0.3837197111247364</v>
+        <v>0.3659320724562127</v>
       </c>
       <c r="C194" t="n">
-        <v>290508904.5233393</v>
+        <v>391515903.653899</v>
       </c>
       <c r="D194" t="n">
-        <v>13422878914.71544</v>
+        <v>12831951055.72967</v>
       </c>
       <c r="E194" t="n">
-        <v>0.01473135899172972</v>
+        <v>0.01508017748681176</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-4.402392830482404</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>0.3659320724562127</v>
+        <v>0.3626513148487202</v>
       </c>
       <c r="C195" t="n">
-        <v>391515903.653899</v>
+        <v>295147832.6645564</v>
       </c>
       <c r="D195" t="n">
-        <v>12831951055.72967</v>
+        <v>12705604283.91454</v>
       </c>
       <c r="E195" t="n">
-        <v>0.01508017748681176</v>
+        <v>0.0157291091036594</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.9846263539068034</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>0.3626513148487202</v>
+        <v>0.3691012414356326</v>
       </c>
       <c r="C196" t="n">
-        <v>295147832.6645564</v>
+        <v>238357219.7338264</v>
       </c>
       <c r="D196" t="n">
-        <v>12705604283.91454</v>
+        <v>12940252749.38211</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0157291091036594</v>
+        <v>0.016070751643678</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.846810747637107</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>0.3691012414356326</v>
+        <v>0.3654013189181053</v>
       </c>
       <c r="C197" t="n">
-        <v>238357219.7338264</v>
+        <v>252916442.7844636</v>
       </c>
       <c r="D197" t="n">
-        <v>12940252749.38211</v>
+        <v>12807607550.16821</v>
       </c>
       <c r="E197" t="n">
-        <v>0.016070751643678</v>
+        <v>0.01652366628849116</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-1.025058797404366</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>0.3654013189181053</v>
+        <v>0.3527432177275084</v>
       </c>
       <c r="C198" t="n">
-        <v>252916442.7844636</v>
+        <v>238422456.275961</v>
       </c>
       <c r="D198" t="n">
-        <v>12807607550.16821</v>
+        <v>12341133082.02023</v>
       </c>
       <c r="E198" t="n">
-        <v>0.01652366628849116</v>
+        <v>0.01747502912427224</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-3.64216709733467</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>0.3527432177275084</v>
+        <v>0.361084219026942</v>
       </c>
       <c r="C199" t="n">
-        <v>238422456.275961</v>
+        <v>229268366.1161482</v>
       </c>
       <c r="D199" t="n">
-        <v>12341133082.02023</v>
+        <v>12657714408.58003</v>
       </c>
       <c r="E199" t="n">
-        <v>0.01747502912427224</v>
+        <v>0.01788649603173256</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.565253323627381</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>0.361084219026942</v>
+        <v>0.3504503118629127</v>
       </c>
       <c r="C200" t="n">
-        <v>229268366.1161482</v>
+        <v>246329386.2930864</v>
       </c>
       <c r="D200" t="n">
-        <v>12657714408.58003</v>
+        <v>12275830909.82263</v>
       </c>
       <c r="E200" t="n">
-        <v>0.01788649603173256</v>
+        <v>0.01884498279123883</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-3.017002014981007</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>0.3504503118629127</v>
+        <v>0.343687410203364</v>
       </c>
       <c r="C201" t="n">
-        <v>246329386.2930864</v>
+        <v>412463637.7882959</v>
       </c>
       <c r="D201" t="n">
-        <v>12275830909.82263</v>
+        <v>12041249033.67145</v>
       </c>
       <c r="E201" t="n">
-        <v>0.01884498279123883</v>
+        <v>0.01992400354108718</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-1.910924628030541</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>0.343687410203364</v>
+        <v>0.3372756948261113</v>
       </c>
       <c r="C202" t="n">
-        <v>412463637.7882959</v>
+        <v>170389737.0930486</v>
       </c>
       <c r="D202" t="n">
-        <v>12041249033.67145</v>
+        <v>11812934508.25112</v>
       </c>
       <c r="E202" t="n">
-        <v>0.01992400354108718</v>
+        <v>0.02114155135832352</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-1.896103342617339</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>0.3372756948261113</v>
+        <v>0.3377385621356667</v>
       </c>
       <c r="C203" t="n">
-        <v>170389737.0930486</v>
+        <v>165818600.9714397</v>
       </c>
       <c r="D203" t="n">
-        <v>11812934508.25112</v>
+        <v>11830384853.65574</v>
       </c>
       <c r="E203" t="n">
-        <v>0.02114155135832352</v>
+        <v>0.0218467961173744</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.1477223580002462</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>0.3377385621356667</v>
+        <v>0.3314563541487507</v>
       </c>
       <c r="C204" t="n">
-        <v>165818600.9714397</v>
+        <v>219304840.3162148</v>
       </c>
       <c r="D204" t="n">
-        <v>11830384853.65574</v>
+        <v>11606828343.00016</v>
       </c>
       <c r="E204" t="n">
-        <v>0.0218467961173744</v>
+        <v>0.02289132669618171</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-1.889680795857596</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>0.3314563541487507</v>
+        <v>0.3313400143931543</v>
       </c>
       <c r="C205" t="n">
-        <v>219304840.3162148</v>
+        <v>269091570.5703871</v>
       </c>
       <c r="D205" t="n">
-        <v>11606828343.00016</v>
+        <v>11581376193.2034</v>
       </c>
       <c r="E205" t="n">
-        <v>0.02289132669618171</v>
+        <v>0.0239202030572227</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.2192860016931863</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>0.3313400143931543</v>
+        <v>0.318386388153705</v>
       </c>
       <c r="C206" t="n">
-        <v>269091570.5703871</v>
+        <v>288851784.3281924</v>
       </c>
       <c r="D206" t="n">
-        <v>11581376193.2034</v>
+        <v>11172310270.03088</v>
       </c>
       <c r="E206" t="n">
-        <v>0.0239202030572227</v>
+        <v>0.02577199463402442</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-3.532101162663104</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>0.318386388153705</v>
+        <v>0.3103243932849642</v>
       </c>
       <c r="C207" t="n">
-        <v>288851784.3281924</v>
+        <v>443854133.9905746</v>
       </c>
       <c r="D207" t="n">
-        <v>11172310270.03088</v>
+        <v>10838510891.38729</v>
       </c>
       <c r="E207" t="n">
-        <v>0.02577199463402442</v>
+        <v>0.02737703552897247</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-2.987738172103827</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3103243932849642</v>
+        <v>0.3156142442271207</v>
       </c>
       <c r="C208" t="n">
-        <v>443854133.9905746</v>
+        <v>468493562.0791454</v>
       </c>
       <c r="D208" t="n">
-        <v>10838510891.38729</v>
+        <v>11089276348.22056</v>
       </c>
       <c r="E208" t="n">
-        <v>0.02737703552897247</v>
+        <v>0.0284378132266291</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2.313652302850411</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3156142442271207</v>
+        <v>0.3059309689361199</v>
       </c>
       <c r="C209" t="n">
-        <v>468493562.0791454</v>
+        <v>434989029.7644779</v>
       </c>
       <c r="D209" t="n">
-        <v>11089276348.22056</v>
+        <v>10679679301.25318</v>
       </c>
       <c r="E209" t="n">
-        <v>0.0284378132266291</v>
+        <v>0.03039444668557667</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-3.693631884582915</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>0.3059309689361199</v>
+        <v>0.3310140716223582</v>
       </c>
       <c r="C210" t="n">
-        <v>434989029.7644779</v>
+        <v>380024634.1860197</v>
       </c>
       <c r="D210" t="n">
-        <v>10679679301.25318</v>
+        <v>11581630428.39233</v>
       </c>
       <c r="E210" t="n">
-        <v>0.03039444668557667</v>
+        <v>0.0309392497020741</v>
+      </c>
+      <c r="F210" t="n">
+        <v>8.445488873746609</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>0.3310140716223582</v>
+        <v>0.3439401177420355</v>
       </c>
       <c r="C211" t="n">
-        <v>380024634.1860197</v>
+        <v>662927956.1389902</v>
       </c>
       <c r="D211" t="n">
-        <v>11581630428.39233</v>
+        <v>12065878442.19469</v>
       </c>
       <c r="E211" t="n">
-        <v>0.0309392497020741</v>
+        <v>0.03106665215190367</v>
+      </c>
+      <c r="F211" t="n">
+        <v>4.181173080909462</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>0.3439401177420355</v>
+        <v>0.3444029860231542</v>
       </c>
       <c r="C212" t="n">
-        <v>662927956.1389902</v>
+        <v>596424616.0981154</v>
       </c>
       <c r="D212" t="n">
-        <v>12065878442.19469</v>
+        <v>12090327310.89138</v>
       </c>
       <c r="E212" t="n">
-        <v>0.03106665215190367</v>
+        <v>0.03120533862585624</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.2026281701230648</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3444029860231542</v>
+        <v>0.325547359499502</v>
       </c>
       <c r="C213" t="n">
-        <v>596424616.0981154</v>
+        <v>599759982.2065071</v>
       </c>
       <c r="D213" t="n">
-        <v>12090327310.89138</v>
+        <v>11397464259.21031</v>
       </c>
       <c r="E213" t="n">
-        <v>0.03120533862585624</v>
+        <v>0.03184429917130586</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-5.730722038078495</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>0.325547359499502</v>
+        <v>0.3267879582622388</v>
       </c>
       <c r="C214" t="n">
-        <v>599759982.2065071</v>
+        <v>364685850.2889938</v>
       </c>
       <c r="D214" t="n">
-        <v>11397464259.21031</v>
+        <v>11454977425.58747</v>
       </c>
       <c r="E214" t="n">
-        <v>0.03184429917130586</v>
+        <v>0.03191662049174457</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.5046137023916319</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>0.3267879582622388</v>
+        <v>0.3502483449244084</v>
       </c>
       <c r="C215" t="n">
-        <v>364685850.2889938</v>
+        <v>451127452.5133043</v>
       </c>
       <c r="D215" t="n">
-        <v>11454977425.58747</v>
+        <v>12259836658.81591</v>
       </c>
       <c r="E215" t="n">
-        <v>0.03191662049174457</v>
+        <v>0.03013020538956895</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7.026283888003082</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3502483449244084</v>
+        <v>0.3389679078478405</v>
       </c>
       <c r="C216" t="n">
-        <v>451127452.5133043</v>
+        <v>405181332.2523505</v>
       </c>
       <c r="D216" t="n">
-        <v>12259836658.81591</v>
+        <v>11885994889.75134</v>
       </c>
       <c r="E216" t="n">
-        <v>0.03013020538956895</v>
+        <v>0.02948764301452741</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-3.049320961350244</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>0.3389679078478405</v>
+        <v>0.3485344878650676</v>
       </c>
       <c r="C217" t="n">
-        <v>405181332.2523505</v>
+        <v>316033206.9485012</v>
       </c>
       <c r="D217" t="n">
-        <v>11885994889.75134</v>
+        <v>12284106876.32238</v>
       </c>
       <c r="E217" t="n">
-        <v>0.02948764301452741</v>
+        <v>0.02782918025521581</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3.349420812172044</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3485344878650676</v>
+        <v>0.3346745876648634</v>
       </c>
       <c r="C218" t="n">
-        <v>316033206.9485012</v>
+        <v>364629687.4878294</v>
       </c>
       <c r="D218" t="n">
-        <v>12284106876.32238</v>
+        <v>11740413064.04814</v>
       </c>
       <c r="E218" t="n">
-        <v>0.02782918025521581</v>
+        <v>0.02592309036554175</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-4.425993828840802</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>0.3346745876648634</v>
+        <v>0.373103830133536</v>
       </c>
       <c r="C219" t="n">
-        <v>364629687.4878294</v>
+        <v>659905518.2570659</v>
       </c>
       <c r="D219" t="n">
-        <v>11740413064.04814</v>
+        <v>13061409181.13397</v>
       </c>
       <c r="E219" t="n">
-        <v>0.02592309036554175</v>
+        <v>0.02456785853098412</v>
+      </c>
+      <c r="F219" t="n">
+        <v>11.25170051410738</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>0.373103830133536</v>
+        <v>0.3630630488297246</v>
       </c>
       <c r="C220" t="n">
-        <v>659905518.2570659</v>
+        <v>922448613.1982259</v>
       </c>
       <c r="D220" t="n">
-        <v>13061409181.13397</v>
+        <v>12707537391.71331</v>
       </c>
       <c r="E220" t="n">
-        <v>0.02456785853098412</v>
+        <v>0.02247984108257861</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-2.709292577188349</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>0.3630630488297246</v>
+        <v>0.3739080566629692</v>
       </c>
       <c r="C221" t="n">
-        <v>922448613.1982259</v>
+        <v>413474704.3827974</v>
       </c>
       <c r="D221" t="n">
-        <v>12707537391.71331</v>
+        <v>13090883001.25323</v>
       </c>
       <c r="E221" t="n">
-        <v>0.02247984108257861</v>
+        <v>0.0214127751976309</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3.016678981325627</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3739080566629692</v>
+        <v>0.3624352389963327</v>
       </c>
       <c r="C222" t="n">
-        <v>413474704.3827974</v>
+        <v>353544632.9832261</v>
       </c>
       <c r="D222" t="n">
-        <v>13090883001.25323</v>
+        <v>12706876812.14848</v>
       </c>
       <c r="E222" t="n">
-        <v>0.0214127751976309</v>
+        <v>0.02010498723076767</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-2.933386457338194</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3624352389963327</v>
+        <v>0.3547228461484663</v>
       </c>
       <c r="C223" t="n">
-        <v>353544632.9832261</v>
+        <v>266325927.9827437</v>
       </c>
       <c r="D223" t="n">
-        <v>12706876812.14848</v>
+        <v>12433136118.86383</v>
       </c>
       <c r="E223" t="n">
-        <v>0.02010498723076767</v>
+        <v>0.01885305530010639</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-2.154272031841309</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>0.3547228461484663</v>
+        <v>0.3570105725609892</v>
       </c>
       <c r="C224" t="n">
-        <v>266325927.9827437</v>
+        <v>272202713.0690776</v>
       </c>
       <c r="D224" t="n">
-        <v>12433136118.86383</v>
+        <v>12535421606.29749</v>
       </c>
       <c r="E224" t="n">
-        <v>0.01885305530010639</v>
+        <v>0.01856909332160955</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.8226845299189378</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3570105725609892</v>
+        <v>0.3469158663951661</v>
       </c>
       <c r="C225" t="n">
-        <v>272202713.0690776</v>
+        <v>336956582.7409677</v>
       </c>
       <c r="D225" t="n">
-        <v>12535421606.29749</v>
+        <v>12138644788.4496</v>
       </c>
       <c r="E225" t="n">
-        <v>0.01856909332160955</v>
+        <v>0.01824500475016061</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-3.165245097528724</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3469158663951661</v>
+        <v>0.3693229983329013</v>
       </c>
       <c r="C226" t="n">
-        <v>336956582.7409677</v>
+        <v>368290970.5481845</v>
       </c>
       <c r="D226" t="n">
-        <v>12138644788.4496</v>
+        <v>12941771031.31124</v>
       </c>
       <c r="E226" t="n">
-        <v>0.01824500475016061</v>
+        <v>0.01825576507288111</v>
+      </c>
+      <c r="F226" t="n">
+        <v>6.616276008223321</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3693229983329013</v>
+        <v>0.3825890970923633</v>
       </c>
       <c r="C227" t="n">
-        <v>368290970.5481845</v>
+        <v>537119162.8428296</v>
       </c>
       <c r="D227" t="n">
-        <v>12941771031.31124</v>
+        <v>13413184620.04239</v>
       </c>
       <c r="E227" t="n">
-        <v>0.01825576507288111</v>
+        <v>0.0192104265092016</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3.642574015493039</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3825890970923633</v>
+        <v>0.3770926816747429</v>
       </c>
       <c r="C228" t="n">
-        <v>537119162.8428296</v>
+        <v>429889697.1126447</v>
       </c>
       <c r="D228" t="n">
-        <v>13413184620.04239</v>
+        <v>13226069415.32429</v>
       </c>
       <c r="E228" t="n">
-        <v>0.0192104265092016</v>
+        <v>0.02008247110972235</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-1.395009537395864</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3770926816747429</v>
+        <v>0.3994645169294982</v>
       </c>
       <c r="C229" t="n">
-        <v>429889697.1126447</v>
+        <v>716335255.9501815</v>
       </c>
       <c r="D229" t="n">
-        <v>13226069415.32429</v>
+        <v>14009040303.90081</v>
       </c>
       <c r="E229" t="n">
-        <v>0.02008247110972235</v>
+        <v>0.02225298095537719</v>
+      </c>
+      <c r="F229" t="n">
+        <v>5.919906088420634</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3994645169294982</v>
+        <v>0.3939027697020029</v>
       </c>
       <c r="C230" t="n">
-        <v>716335255.9501815</v>
+        <v>388714587.1512622</v>
       </c>
       <c r="D230" t="n">
-        <v>14009040303.90081</v>
+        <v>13824277589.68826</v>
       </c>
       <c r="E230" t="n">
-        <v>0.02225298095537719</v>
+        <v>0.02389297526822888</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-1.318882023353862</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>0.3939027697020029</v>
+        <v>0.382295535404939</v>
       </c>
       <c r="C231" t="n">
-        <v>388714587.1512622</v>
+        <v>320100355.8623564</v>
       </c>
       <c r="D231" t="n">
-        <v>13824277589.68826</v>
+        <v>13389440672.10105</v>
       </c>
       <c r="E231" t="n">
-        <v>0.02389297526822888</v>
+        <v>0.02469854610351718</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-3.14545852227075</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>0.382295535404939</v>
+        <v>0.3877793388364147</v>
       </c>
       <c r="C232" t="n">
-        <v>320100355.8623564</v>
+        <v>683769265.034847</v>
       </c>
       <c r="D232" t="n">
-        <v>13389440672.10105</v>
+        <v>13631038603.44044</v>
       </c>
       <c r="E232" t="n">
-        <v>0.02469854610351718</v>
+        <v>0.02558190328469614</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.804391514597015</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3877793388364147</v>
+        <v>0.3900193739362444</v>
       </c>
       <c r="C233" t="n">
-        <v>683769265.034847</v>
+        <v>400460060.6080257</v>
       </c>
       <c r="D233" t="n">
-        <v>13631038603.44044</v>
+        <v>13665129449.30164</v>
       </c>
       <c r="E233" t="n">
-        <v>0.02558190328469614</v>
+        <v>0.02644065901890028</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.2500971998758095</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3900193739362444</v>
+        <v>0.392669708759756</v>
       </c>
       <c r="C234" t="n">
-        <v>400460060.6080257</v>
+        <v>309234324.8824121</v>
       </c>
       <c r="D234" t="n">
-        <v>13665129449.30164</v>
+        <v>13768988507.45301</v>
       </c>
       <c r="E234" t="n">
-        <v>0.02644065901890028</v>
+        <v>0.02712497846882879</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.7600298155732377</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>0.392669708759756</v>
+        <v>0.3837872536626338</v>
       </c>
       <c r="C235" t="n">
-        <v>309234324.8824121</v>
+        <v>290787654.9883234</v>
       </c>
       <c r="D235" t="n">
-        <v>13768988507.45301</v>
+        <v>13463680142.89955</v>
       </c>
       <c r="E235" t="n">
-        <v>0.02712497846882879</v>
+        <v>0.02727718132325496</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-2.217362331214057</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>0.3837872536626338</v>
+        <v>0.3842857167519437</v>
       </c>
       <c r="C236" t="n">
-        <v>290787654.9883234</v>
+        <v>219082583.9569315</v>
       </c>
       <c r="D236" t="n">
-        <v>13463680142.89955</v>
+        <v>13475498915.16317</v>
       </c>
       <c r="E236" t="n">
-        <v>0.02727718132325496</v>
+        <v>0.02678023955560857</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.08778262806434789</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3842857167519437</v>
+        <v>0.3864679401025493</v>
       </c>
       <c r="C237" t="n">
-        <v>219082583.9569315</v>
+        <v>227489857.3044711</v>
       </c>
       <c r="D237" t="n">
-        <v>13475498915.16317</v>
+        <v>13547039830.25686</v>
       </c>
       <c r="E237" t="n">
-        <v>0.02678023955560857</v>
+        <v>0.02565681035753987</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.530896225394617</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3864679401025493</v>
+        <v>0.3898666390252823</v>
       </c>
       <c r="C238" t="n">
-        <v>227489857.3044711</v>
+        <v>222258531.3009762</v>
       </c>
       <c r="D238" t="n">
-        <v>13547039830.25686</v>
+        <v>13668842180.42356</v>
       </c>
       <c r="E238" t="n">
-        <v>0.02565681035753987</v>
+        <v>0.02470295908114259</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.8991067546332721</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>0.3898666390252823</v>
+        <v>0.3971824198896078</v>
       </c>
       <c r="C239" t="n">
-        <v>222258531.3009762</v>
+        <v>274331218.2805179</v>
       </c>
       <c r="D239" t="n">
-        <v>13668842180.42356</v>
+        <v>13914326446.55725</v>
       </c>
       <c r="E239" t="n">
-        <v>0.02470295908114259</v>
+        <v>0.02294329148399421</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1.795940452698086</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3971824198896078</v>
+        <v>0.4016644954431888</v>
       </c>
       <c r="C240" t="n">
-        <v>274331218.2805179</v>
+        <v>437318682.9049153</v>
       </c>
       <c r="D240" t="n">
-        <v>13914326446.55725</v>
+        <v>14074149361.99053</v>
       </c>
       <c r="E240" t="n">
-        <v>0.02294329148399421</v>
+        <v>0.0228114208065262</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1.148621286464291</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>0.4016644954431888</v>
+        <v>0.4054038161332796</v>
       </c>
       <c r="C241" t="n">
-        <v>437318682.9049153</v>
+        <v>414553548.7546436</v>
       </c>
       <c r="D241" t="n">
-        <v>14074149361.99053</v>
+        <v>14231712048.48265</v>
       </c>
       <c r="E241" t="n">
-        <v>0.0228114208065262</v>
+        <v>0.02326154340904408</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.119518362634686</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>0.4054038161332796</v>
+        <v>0.4261547854218048</v>
       </c>
       <c r="C242" t="n">
-        <v>414553548.7546436</v>
+        <v>500970494.3498502</v>
       </c>
       <c r="D242" t="n">
-        <v>14231712048.48265</v>
+        <v>14937732271.41402</v>
       </c>
       <c r="E242" t="n">
-        <v>0.02326154340904408</v>
+        <v>0.02479975959846797</v>
+      </c>
+      <c r="F242" t="n">
+        <v>4.960894518707226</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>0.4261547854218048</v>
+        <v>0.4389198844544001</v>
       </c>
       <c r="C243" t="n">
-        <v>500970494.3498502</v>
+        <v>684812256.7294112</v>
       </c>
       <c r="D243" t="n">
-        <v>14937732271.41402</v>
+        <v>15375843757.42677</v>
       </c>
       <c r="E243" t="n">
-        <v>0.02479975959846797</v>
+        <v>0.02585176972476875</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2.932918317535771</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>0.4389198844544001</v>
+        <v>0.4541580633912379</v>
       </c>
       <c r="C244" t="n">
-        <v>684812256.7294112</v>
+        <v>559309012.4588557</v>
       </c>
       <c r="D244" t="n">
-        <v>15375843757.42677</v>
+        <v>15952653141.76076</v>
       </c>
       <c r="E244" t="n">
-        <v>0.02585176972476875</v>
+        <v>0.02766422906458485</v>
+      </c>
+      <c r="F244" t="n">
+        <v>3.751399880448036</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>0.4541580633912379</v>
+        <v>0.451766208132973</v>
       </c>
       <c r="C245" t="n">
-        <v>559309012.4588557</v>
+        <v>395915101.3189253</v>
       </c>
       <c r="D245" t="n">
-        <v>15952653141.76076</v>
+        <v>15832624300.02752</v>
       </c>
       <c r="E245" t="n">
-        <v>0.02766422906458485</v>
+        <v>0.0298272114688348</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-0.7524067668657652</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>0.451766208132973</v>
+        <v>0.4346193649718819</v>
       </c>
       <c r="C246" t="n">
-        <v>395915101.3189253</v>
+        <v>484945099.3398843</v>
       </c>
       <c r="D246" t="n">
-        <v>15832624300.02752</v>
+        <v>15217409658.80521</v>
       </c>
       <c r="E246" t="n">
-        <v>0.0298272114688348</v>
+        <v>0.02985614637982972</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-3.88574016261628</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>0.4346193649718819</v>
+        <v>0.4436136264840976</v>
       </c>
       <c r="C247" t="n">
-        <v>484945099.3398843</v>
+        <v>375002798.6104069</v>
       </c>
       <c r="D247" t="n">
-        <v>15217409658.80521</v>
+        <v>15556085792.81936</v>
       </c>
       <c r="E247" t="n">
-        <v>0.02985614637982972</v>
+        <v>0.03054693487775197</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2.225583339134118</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>0.4436136264840976</v>
+        <v>0.4152497046786998</v>
       </c>
       <c r="C248" t="n">
-        <v>375002798.6104069</v>
+        <v>593641384.5100411</v>
       </c>
       <c r="D248" t="n">
-        <v>15556085792.81936</v>
+        <v>14563917112.89741</v>
       </c>
       <c r="E248" t="n">
-        <v>0.03054693487775197</v>
+        <v>0.02889447601725168</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-6.378009822881903</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>0.4152497046786998</v>
+        <v>0.4007495007189589</v>
       </c>
       <c r="C249" t="n">
-        <v>593641384.5100411</v>
+        <v>460777651.5012477</v>
       </c>
       <c r="D249" t="n">
-        <v>14563917112.89741</v>
+        <v>14034051781.95876</v>
       </c>
       <c r="E249" t="n">
-        <v>0.02889447601725168</v>
+        <v>0.02864545574570356</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-3.638206169612268</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>0.4007495007189589</v>
+        <v>0.3829833446515009</v>
       </c>
       <c r="C250" t="n">
-        <v>460777651.5012477</v>
+        <v>439360411.6551124</v>
       </c>
       <c r="D250" t="n">
-        <v>14034051781.95876</v>
+        <v>13415730445.4375</v>
       </c>
       <c r="E250" t="n">
-        <v>0.02864545574570356</v>
+        <v>0.02810778649731881</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-4.405864721948182</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3829833446515009</v>
+        <v>0.3969243401994613</v>
       </c>
       <c r="C251" t="n">
-        <v>439360411.6551124</v>
+        <v>267477971.6677824</v>
       </c>
       <c r="D251" t="n">
-        <v>13415730445.4375</v>
+        <v>13906111784.03366</v>
       </c>
       <c r="E251" t="n">
-        <v>0.02810778649731881</v>
+        <v>0.02780874935280151</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3.655271254819614</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>0.3969243401994613</v>
+        <v>0.3890957993158407</v>
       </c>
       <c r="C252" t="n">
-        <v>267477971.6677824</v>
+        <v>242425244.1068215</v>
       </c>
       <c r="D252" t="n">
-        <v>13906111784.03366</v>
+        <v>13614994074.37198</v>
       </c>
       <c r="E252" t="n">
-        <v>0.02780874935280151</v>
+        <v>0.02710518881333467</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-2.093451528240442</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>0.3890957993158407</v>
+        <v>0.3840507082888743</v>
       </c>
       <c r="C253" t="n">
-        <v>242425244.1068215</v>
+        <v>290722439.3434733</v>
       </c>
       <c r="D253" t="n">
-        <v>13614994074.37198</v>
+        <v>13466477502.82102</v>
       </c>
       <c r="E253" t="n">
-        <v>0.02710518881333467</v>
+        <v>0.02602693897451376</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-1.090830967238687</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3840507082888743</v>
+        <v>0.3950850314146065</v>
       </c>
       <c r="C254" t="n">
-        <v>290722439.3434733</v>
+        <v>294682478.9746848</v>
       </c>
       <c r="D254" t="n">
-        <v>13466477502.82102</v>
+        <v>13820436004.54416</v>
       </c>
       <c r="E254" t="n">
-        <v>0.02602693897451376</v>
+        <v>0.02485089435533195</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2.628441637013013</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3950850314146065</v>
+        <v>0.4013012542412486</v>
       </c>
       <c r="C255" t="n">
-        <v>294682478.9746848</v>
+        <v>520144169.2884855</v>
       </c>
       <c r="D255" t="n">
-        <v>13820436004.54416</v>
+        <v>14062027692.5581</v>
       </c>
       <c r="E255" t="n">
-        <v>0.02485089435533195</v>
+        <v>0.02278258283256532</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1.748075733171595</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>0.4013012542412486</v>
+        <v>0.4103191182417802</v>
       </c>
       <c r="C256" t="n">
-        <v>520144169.2884855</v>
+        <v>425245708.9423388</v>
       </c>
       <c r="D256" t="n">
-        <v>14062027692.5581</v>
+        <v>14369501448.18828</v>
       </c>
       <c r="E256" t="n">
-        <v>0.02278258283256532</v>
+        <v>0.02201612978533023</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2.186553478293174</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4103191182417802</v>
+        <v>0.405228863697774</v>
       </c>
       <c r="C257" t="n">
-        <v>425245708.9423388</v>
+        <v>245848710.074081</v>
       </c>
       <c r="D257" t="n">
-        <v>14369501448.18828</v>
+        <v>14192467314.16635</v>
       </c>
       <c r="E257" t="n">
-        <v>0.02201612978533023</v>
+        <v>0.0216904331837332</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-1.23201305668299</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>0.405228863697774</v>
+        <v>0.4026173140049636</v>
       </c>
       <c r="C258" t="n">
-        <v>245848710.074081</v>
+        <v>159646974.9843912</v>
       </c>
       <c r="D258" t="n">
-        <v>14192467314.16635</v>
+        <v>14118334309.3596</v>
       </c>
       <c r="E258" t="n">
-        <v>0.0216904331837332</v>
+        <v>0.02111578860917179</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-0.5223405005326365</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>0.4026173140049636</v>
+        <v>0.3982592228907265</v>
       </c>
       <c r="C259" t="n">
-        <v>159646974.9843912</v>
+        <v>237510774.9604898</v>
       </c>
       <c r="D259" t="n">
-        <v>14118334309.3596</v>
+        <v>13971464374.61821</v>
       </c>
       <c r="E259" t="n">
-        <v>0.02111578860917179</v>
+        <v>0.02112636008786536</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-1.040278063425837</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>0.3982592228907265</v>
+        <v>0.3872992691284444</v>
       </c>
       <c r="C260" t="n">
-        <v>237510774.9604898</v>
+        <v>287299857.2262228</v>
       </c>
       <c r="D260" t="n">
-        <v>13971464374.61821</v>
+        <v>13567718828.48632</v>
       </c>
       <c r="E260" t="n">
-        <v>0.02112636008786536</v>
+        <v>0.02127140158714032</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-2.889786892098245</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3872992691284444</v>
+        <v>0.3915645139285783</v>
       </c>
       <c r="C261" t="n">
-        <v>287299857.2262228</v>
+        <v>208588929.0919487</v>
       </c>
       <c r="D261" t="n">
-        <v>13567718828.48632</v>
+        <v>13728305157.12659</v>
       </c>
       <c r="E261" t="n">
-        <v>0.02127140158714032</v>
+        <v>0.02101108874341657</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1.183591218761948</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>0.3915645139285783</v>
+        <v>0.3938375814513239</v>
       </c>
       <c r="C262" t="n">
-        <v>208588929.0919487</v>
+        <v>278479196.3879188</v>
       </c>
       <c r="D262" t="n">
-        <v>13728305157.12659</v>
+        <v>13798775976.60085</v>
       </c>
       <c r="E262" t="n">
-        <v>0.02101108874341657</v>
+        <v>0.02087547746070535</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.513324978339913</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>0.3938375814513239</v>
+        <v>0.3877103199326264</v>
       </c>
       <c r="C263" t="n">
-        <v>278479196.3879188</v>
+        <v>188639696.5760474</v>
       </c>
       <c r="D263" t="n">
-        <v>13798775976.60085</v>
+        <v>13587602980.82751</v>
       </c>
       <c r="E263" t="n">
-        <v>0.02087547746070535</v>
+        <v>0.02093489960132555</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-1.530374839996229</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>0.3877103199326264</v>
+        <v>0.3945345869359407</v>
       </c>
       <c r="C264" t="n">
-        <v>188639696.5760474</v>
+        <v>253186602.3977472</v>
       </c>
       <c r="D264" t="n">
-        <v>13587602980.82751</v>
+        <v>13810441154.24562</v>
       </c>
       <c r="E264" t="n">
-        <v>0.02093489960132555</v>
+        <v>0.02090152396909131</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1.640010925639657</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>0.3945345869359407</v>
+        <v>0.3802608107981574</v>
       </c>
       <c r="C265" t="n">
-        <v>253186602.3977472</v>
+        <v>264020888.9023085</v>
       </c>
       <c r="D265" t="n">
-        <v>13810441154.24562</v>
+        <v>13306507398.74309</v>
       </c>
       <c r="E265" t="n">
-        <v>0.02090152396909131</v>
+        <v>0.02103148129726595</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-3.648933078054561</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3802608107981574</v>
+        <v>0.3780911271307231</v>
       </c>
       <c r="C266" t="n">
-        <v>264020888.9023085</v>
+        <v>180336987.8570494</v>
       </c>
       <c r="D266" t="n">
-        <v>13306507398.74309</v>
+        <v>13232806523.75136</v>
       </c>
       <c r="E266" t="n">
-        <v>0.02103148129726595</v>
+        <v>0.02126460978494332</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-0.5538709203189329</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3780911271307231</v>
+        <v>0.3661456825004272</v>
       </c>
       <c r="C267" t="n">
-        <v>180336987.8570494</v>
+        <v>382957668.9617624</v>
       </c>
       <c r="D267" t="n">
-        <v>13232806523.75136</v>
+        <v>12810565343.83772</v>
       </c>
       <c r="E267" t="n">
-        <v>0.02126460978494332</v>
+        <v>0.02215298028477292</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-3.190866420934746</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>0.3661456825004272</v>
+        <v>0.3635783668516175</v>
       </c>
       <c r="C268" t="n">
-        <v>382957668.9617624</v>
+        <v>237308697.1625938</v>
       </c>
       <c r="D268" t="n">
-        <v>12810565343.83772</v>
+        <v>12739370020.7444</v>
       </c>
       <c r="E268" t="n">
-        <v>0.02215298028477292</v>
+        <v>0.02320531567190188</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.5557547319921308</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>0.3635783668516175</v>
+        <v>0.3706085739437641</v>
       </c>
       <c r="C269" t="n">
-        <v>237308697.1625938</v>
+        <v>365559449.6864186</v>
       </c>
       <c r="D269" t="n">
-        <v>12739370020.7444</v>
+        <v>12975441604.40091</v>
       </c>
       <c r="E269" t="n">
-        <v>0.02320531567190188</v>
+        <v>0.02391603827528411</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1.853086795281889</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>0.3706085739437641</v>
+        <v>0.3606291711361826</v>
       </c>
       <c r="C270" t="n">
-        <v>365559449.6864186</v>
+        <v>272231849.7315605</v>
       </c>
       <c r="D270" t="n">
-        <v>12975441604.40091</v>
+        <v>12633292676.03351</v>
       </c>
       <c r="E270" t="n">
-        <v>0.02391603827528411</v>
+        <v>0.02506556034592249</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-2.636896213623707</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>0.3606291711361826</v>
+        <v>0.3708121337966895</v>
       </c>
       <c r="C271" t="n">
-        <v>272231849.7315605</v>
+        <v>285317964.1299871</v>
       </c>
       <c r="D271" t="n">
-        <v>12633292676.03351</v>
+        <v>12992449827.73734</v>
       </c>
       <c r="E271" t="n">
-        <v>0.02506556034592249</v>
+        <v>0.0256150851072659</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2.842941748552907</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>0.3708121337966895</v>
+        <v>0.3650928590516438</v>
       </c>
       <c r="C272" t="n">
-        <v>285317964.1299871</v>
+        <v>139616346.2612486</v>
       </c>
       <c r="D272" t="n">
-        <v>12992449827.73734</v>
+        <v>12829453677.49199</v>
       </c>
       <c r="E272" t="n">
-        <v>0.0256150851072659</v>
+        <v>0.02582499543132739</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-1.254545158199316</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3650928590516438</v>
+        <v>0.3708186911891722</v>
       </c>
       <c r="C273" t="n">
-        <v>139616346.2612486</v>
+        <v>130253982.1279778</v>
       </c>
       <c r="D273" t="n">
-        <v>12829453677.49199</v>
+        <v>12996323481.30367</v>
       </c>
       <c r="E273" t="n">
-        <v>0.02582499543132739</v>
+        <v>0.02500879590190648</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1.30067739442743</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>0.3708186911891722</v>
+        <v>0.3680850923668412</v>
       </c>
       <c r="C274" t="n">
-        <v>130253982.1279778</v>
+        <v>187955307.4637446</v>
       </c>
       <c r="D274" t="n">
-        <v>12996323481.30367</v>
+        <v>12899094797.3394</v>
       </c>
       <c r="E274" t="n">
-        <v>0.02500879590190648</v>
+        <v>0.02281738235417649</v>
+      </c>
+      <c r="F274" t="n">
+        <v>-0.7481245300190786</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3680850923668412</v>
+        <v>0.3680868604832396</v>
       </c>
       <c r="C275" t="n">
-        <v>187955307.4637446</v>
+        <v>181513998.1325077</v>
       </c>
       <c r="D275" t="n">
-        <v>12899094797.3394</v>
+        <v>12903680934.5073</v>
       </c>
       <c r="E275" t="n">
-        <v>0.02281738235417649</v>
+        <v>0.02023140807889333</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.03555394576091331</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>0.3680868604832396</v>
+        <v>0.3751946347013853</v>
       </c>
       <c r="C276" t="n">
-        <v>181513998.1325077</v>
+        <v>232388388.703447</v>
       </c>
       <c r="D276" t="n">
-        <v>12903680934.5073</v>
+        <v>13148583717.1607</v>
       </c>
       <c r="E276" t="n">
-        <v>0.02023140807889333</v>
+        <v>0.01846755887484761</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.897929620984939</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>0.3751946347013853</v>
+        <v>0.3727387229660462</v>
       </c>
       <c r="C277" t="n">
-        <v>232388388.703447</v>
+        <v>213667302.7240964</v>
       </c>
       <c r="D277" t="n">
-        <v>13148583717.1607</v>
+        <v>13082316162.32823</v>
       </c>
       <c r="E277" t="n">
-        <v>0.01846755887484761</v>
+        <v>0.01526580415921813</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-0.5039900589899893</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>0.3727387229660462</v>
+        <v>0.3685992453179344</v>
       </c>
       <c r="C278" t="n">
-        <v>213667302.7240964</v>
+        <v>140897222.9534564</v>
       </c>
       <c r="D278" t="n">
-        <v>13082316162.32823</v>
+        <v>12926880990.80933</v>
       </c>
       <c r="E278" t="n">
-        <v>0.01526580415921813</v>
+        <v>0.01442007798684093</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-1.188131899506373</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>0.3685992453179344</v>
+        <v>0.3664675892929976</v>
       </c>
       <c r="C279" t="n">
-        <v>140897222.9534564</v>
+        <v>124054022.4259866</v>
       </c>
       <c r="D279" t="n">
-        <v>12926880990.80933</v>
+        <v>12846035787.71246</v>
       </c>
       <c r="E279" t="n">
-        <v>0.01442007798684093</v>
+        <v>0.01435134041857921</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-0.6254037857573946</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3664675892929976</v>
+        <v>0.3610943786327967</v>
       </c>
       <c r="C280" t="n">
-        <v>124054022.4259866</v>
+        <v>121023033.0680159</v>
       </c>
       <c r="D280" t="n">
-        <v>12846035787.71246</v>
+        <v>12666778954.79216</v>
       </c>
       <c r="E280" t="n">
-        <v>0.01435134041857921</v>
+        <v>0.0148576710811979</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-1.395425296041619</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>0.3610943786327967</v>
+        <v>0.3682463518703757</v>
       </c>
       <c r="C281" t="n">
-        <v>121023033.0680159</v>
+        <v>194126381.1036861</v>
       </c>
       <c r="D281" t="n">
-        <v>12666778954.79216</v>
+        <v>12907417375.04593</v>
       </c>
       <c r="E281" t="n">
-        <v>0.0148576710811979</v>
+        <v>0.01475131348115904</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1.899760160910802</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>0.3682463518703757</v>
+        <v>0.3705825231641723</v>
       </c>
       <c r="C282" t="n">
-        <v>194126381.1036861</v>
+        <v>152275359.6730791</v>
       </c>
       <c r="D282" t="n">
-        <v>12907417375.04593</v>
+        <v>12982680041.22865</v>
       </c>
       <c r="E282" t="n">
-        <v>0.01475131348115904</v>
+        <v>0.01476720537431264</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.5830962461028433</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3705825231641723</v>
+        <v>0.364486212685355</v>
       </c>
       <c r="C283" t="n">
-        <v>152275359.6730791</v>
+        <v>189249483.8562266</v>
       </c>
       <c r="D283" t="n">
-        <v>12982680041.22865</v>
+        <v>12789035655.35683</v>
       </c>
       <c r="E283" t="n">
-        <v>0.01476720537431264</v>
+        <v>0.01500753866118145</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-1.491559410359611</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>0.364486212685355</v>
+        <v>0.3585566121306954</v>
       </c>
       <c r="C284" t="n">
-        <v>189249483.8562266</v>
+        <v>174444983.8345201</v>
       </c>
       <c r="D284" t="n">
-        <v>12789035655.35683</v>
+        <v>12565006577.64583</v>
       </c>
       <c r="E284" t="n">
-        <v>0.01500753866118145</v>
+        <v>0.01515921153381724</v>
+      </c>
+      <c r="F284" t="n">
+        <v>-1.751727681024651</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>0.3585566121306954</v>
+        <v>0.3629983720299451</v>
       </c>
       <c r="C285" t="n">
-        <v>174444983.8345201</v>
+        <v>191311920.3397463</v>
       </c>
       <c r="D285" t="n">
-        <v>12565006577.64583</v>
+        <v>12719159679.89146</v>
       </c>
       <c r="E285" t="n">
-        <v>0.01515921153381724</v>
+        <v>0.01473865480578808</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1.226844580566144</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>0.3629983720299451</v>
+        <v>0.3670524339009351</v>
       </c>
       <c r="C286" t="n">
-        <v>191311920.3397463</v>
+        <v>131051761.5212523</v>
       </c>
       <c r="D286" t="n">
-        <v>12719159679.89146</v>
+        <v>12857478682.07051</v>
       </c>
       <c r="E286" t="n">
-        <v>0.01473865480578808</v>
+        <v>0.01339646960478844</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1.087485381583209</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>0.3670524339009351</v>
+        <v>0.3833572392611616</v>
       </c>
       <c r="C287" t="n">
-        <v>131051761.5212523</v>
+        <v>237778137.2654155</v>
       </c>
       <c r="D287" t="n">
-        <v>12857478682.07051</v>
+        <v>13438800647.83176</v>
       </c>
       <c r="E287" t="n">
-        <v>0.01339646960478844</v>
+        <v>0.01225890062022167</v>
+      </c>
+      <c r="F287" t="n">
+        <v>4.521274972611056</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3833572392611616</v>
+        <v>0.379003044055307</v>
       </c>
       <c r="C288" t="n">
-        <v>237778137.2654155</v>
+        <v>203132546.8907568</v>
       </c>
       <c r="D288" t="n">
-        <v>13438800647.83176</v>
+        <v>13294507213.12576</v>
       </c>
       <c r="E288" t="n">
-        <v>0.01225890062022167</v>
+        <v>0.01109991217928805</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-1.073707680374558</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>0.379003044055307</v>
+        <v>0.3779807458144805</v>
       </c>
       <c r="C289" t="n">
-        <v>203132546.8907568</v>
+        <v>199866301.7647538</v>
       </c>
       <c r="D289" t="n">
-        <v>13294507213.12576</v>
+        <v>13257325917.92102</v>
       </c>
       <c r="E289" t="n">
-        <v>0.01109991217928805</v>
+        <v>0.01013405048648</v>
+      </c>
+      <c r="F289" t="n">
+        <v>-0.2796741135920877</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>0.3779807458144805</v>
+        <v>0.3750855973421326</v>
       </c>
       <c r="C290" t="n">
-        <v>199866301.7647538</v>
+        <v>200489170.962389</v>
       </c>
       <c r="D290" t="n">
-        <v>13257325917.92102</v>
+        <v>13129990737.88503</v>
       </c>
       <c r="E290" t="n">
-        <v>0.01013405048648</v>
+        <v>0.009783941113604868</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-0.9604891727362341</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>0.3750855973421326</v>
+        <v>0.3651749318541584</v>
       </c>
       <c r="C291" t="n">
-        <v>200489170.962389</v>
+        <v>248374441.0424636</v>
       </c>
       <c r="D291" t="n">
-        <v>13129990737.88503</v>
+        <v>12797981310.84995</v>
       </c>
       <c r="E291" t="n">
-        <v>0.009783941113604868</v>
+        <v>0.009199157809063059</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-2.528634129779728</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>0.3651749318541584</v>
+        <v>0.3784899809702085</v>
       </c>
       <c r="C292" t="n">
-        <v>248374441.0424636</v>
+        <v>215323705.2670433</v>
       </c>
       <c r="D292" t="n">
-        <v>12797981310.84995</v>
+        <v>13262204823.13518</v>
       </c>
       <c r="E292" t="n">
-        <v>0.009199157809063059</v>
+        <v>0.008317599621391591</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3.627318254416134</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3784899809702085</v>
+        <v>0.3759484175063683</v>
       </c>
       <c r="C293" t="n">
-        <v>215323705.2670433</v>
+        <v>116838544.573385</v>
       </c>
       <c r="D293" t="n">
-        <v>13262204823.13518</v>
+        <v>13175759868.4878</v>
       </c>
       <c r="E293" t="n">
-        <v>0.008317599621391591</v>
+        <v>0.007778020740597223</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-0.6518143536478727</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3759484175063683</v>
+        <v>0.3786254812135736</v>
       </c>
       <c r="C294" t="n">
-        <v>116838544.573385</v>
+        <v>146495299.1074623</v>
       </c>
       <c r="D294" t="n">
-        <v>13175759868.4878</v>
+        <v>13270626361.91889</v>
       </c>
       <c r="E294" t="n">
-        <v>0.007778020740597223</v>
+        <v>0.006559890751334581</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.7200077595370669</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>0.3786254812135736</v>
+        <v>0.3520800748356713</v>
       </c>
       <c r="C295" t="n">
-        <v>146495299.1074623</v>
+        <v>311589965.2096136</v>
       </c>
       <c r="D295" t="n">
-        <v>13270626361.91889</v>
+        <v>12359885714.54675</v>
       </c>
       <c r="E295" t="n">
-        <v>0.006559890751334581</v>
+        <v>0.007094538906442923</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-6.862830905898932</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>0.3520800748356713</v>
+        <v>0.3541047437230991</v>
       </c>
       <c r="C296" t="n">
-        <v>311589965.2096136</v>
+        <v>282365546.1434948</v>
       </c>
       <c r="D296" t="n">
-        <v>12359885714.54675</v>
+        <v>12399325222.32565</v>
       </c>
       <c r="E296" t="n">
-        <v>0.007094538906442923</v>
+        <v>0.007431547906141481</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.3190928192199127</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>0.3541047437230991</v>
+        <v>0.3223911496462773</v>
       </c>
       <c r="C297" t="n">
-        <v>282365546.1434948</v>
+        <v>412340334.7947022</v>
       </c>
       <c r="D297" t="n">
-        <v>12399325222.32565</v>
+        <v>11295255695.12369</v>
       </c>
       <c r="E297" t="n">
-        <v>0.007431547906141481</v>
+        <v>0.0112526765866187</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-8.904271058347824</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>0.3223911496462773</v>
+        <v>0.3231673186820081</v>
       </c>
       <c r="C298" t="n">
-        <v>412340334.7947022</v>
+        <v>266354696.8563639</v>
       </c>
       <c r="D298" t="n">
-        <v>11295255695.12369</v>
+        <v>11320542141.36701</v>
       </c>
       <c r="E298" t="n">
-        <v>0.0112526765866187</v>
+        <v>0.01382564419690723</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.2238678514753678</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>0.3231673186820081</v>
+        <v>0.2952222726424382</v>
       </c>
       <c r="C299" t="n">
-        <v>266354696.8563639</v>
+        <v>551200071.2373739</v>
       </c>
       <c r="D299" t="n">
-        <v>11320542141.36701</v>
+        <v>10317921990.29103</v>
       </c>
       <c r="E299" t="n">
-        <v>0.01382564419690723</v>
+        <v>0.01886412165922427</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-8.856644306921046</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2952222726424382</v>
+        <v>0.2763099428900195</v>
       </c>
       <c r="C300" t="n">
-        <v>551200071.2373739</v>
+        <v>1399405888.824027</v>
       </c>
       <c r="D300" t="n">
-        <v>10317921990.29103</v>
+        <v>9716786435.293474</v>
       </c>
       <c r="E300" t="n">
-        <v>0.01886412165922427</v>
+        <v>0.02466991482672235</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-5.826130063429568</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>0.2763099428900195</v>
+        <v>0.2728991855704722</v>
       </c>
       <c r="C301" t="n">
-        <v>1399405888.824027</v>
+        <v>536957961.8058821</v>
       </c>
       <c r="D301" t="n">
-        <v>9716786435.293474</v>
+        <v>9545651607.422129</v>
       </c>
       <c r="E301" t="n">
-        <v>0.02466991482672235</v>
+        <v>0.0293040577506075</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-1.761228663519321</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>0.2728991855704722</v>
+        <v>0.2756566477744952</v>
       </c>
       <c r="C302" t="n">
-        <v>536957961.8058821</v>
+        <v>460654747.4903586</v>
       </c>
       <c r="D302" t="n">
-        <v>9545651607.422129</v>
+        <v>9659267109.116688</v>
       </c>
       <c r="E302" t="n">
-        <v>0.0293040577506075</v>
+        <v>0.03281876603390799</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1.19023306492998</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>0.2756566477744952</v>
+        <v>0.2749143072713839</v>
       </c>
       <c r="C303" t="n">
-        <v>460654747.4903586</v>
+        <v>337639817.6442474</v>
       </c>
       <c r="D303" t="n">
-        <v>9659267109.116688</v>
+        <v>9626181098.955879</v>
       </c>
       <c r="E303" t="n">
-        <v>0.03281876603390799</v>
+        <v>0.0356972593020624</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-0.3425312685429449</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>0.2749143072713839</v>
+        <v>0.263209113393556</v>
       </c>
       <c r="C304" t="n">
-        <v>337639817.6442474</v>
+        <v>263220414.3051868</v>
       </c>
       <c r="D304" t="n">
-        <v>9626181098.955879</v>
+        <v>9220131350.382799</v>
       </c>
       <c r="E304" t="n">
-        <v>0.0356972593020624</v>
+        <v>0.03896126353426327</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-4.218181066810834</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>0.263209113393556</v>
+        <v>0.2617003150313724</v>
       </c>
       <c r="C305" t="n">
-        <v>263220414.3051868</v>
+        <v>279473081.5657119</v>
       </c>
       <c r="D305" t="n">
-        <v>9220131350.382799</v>
+        <v>9167328677.190823</v>
       </c>
       <c r="E305" t="n">
-        <v>0.03896126353426327</v>
+        <v>0.04177164504944561</v>
+      </c>
+      <c r="F305" t="n">
+        <v>-0.5726889475363484</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>0.2617003150313724</v>
+        <v>0.2633480273248004</v>
       </c>
       <c r="C306" t="n">
-        <v>279473081.5657119</v>
+        <v>189310965.3988133</v>
       </c>
       <c r="D306" t="n">
-        <v>9167328677.190823</v>
+        <v>9227182603.080389</v>
       </c>
       <c r="E306" t="n">
-        <v>0.04177164504944561</v>
+        <v>0.04383584577986532</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.6529047664505461</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>0.2633480273248004</v>
+        <v>0.2669648590318742</v>
       </c>
       <c r="C307" t="n">
-        <v>189310965.3988133</v>
+        <v>187039705.873628</v>
       </c>
       <c r="D307" t="n">
-        <v>9227182603.080389</v>
+        <v>9359198036.222015</v>
       </c>
       <c r="E307" t="n">
-        <v>0.04383584577986532</v>
+        <v>0.04536524463647441</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.430723101735887</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>0.2669648590318742</v>
+        <v>0.2611272465334427</v>
       </c>
       <c r="C308" t="n">
-        <v>187039705.873628</v>
+        <v>142964016.4625522</v>
       </c>
       <c r="D308" t="n">
-        <v>9359198036.222015</v>
+        <v>9151703555.11924</v>
       </c>
       <c r="E308" t="n">
-        <v>0.04536524463647441</v>
+        <v>0.04698139628941525</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-2.217011332592056</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>0.2611272465334427</v>
+        <v>0.2630351554029657</v>
       </c>
       <c r="C309" t="n">
-        <v>142964016.4625522</v>
+        <v>131662710.3935029</v>
       </c>
       <c r="D309" t="n">
-        <v>9151703555.11924</v>
+        <v>9218553307.245695</v>
       </c>
       <c r="E309" t="n">
-        <v>0.04698139628941525</v>
+        <v>0.04823496746085867</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.730462385760533</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>0.2630351554029657</v>
+        <v>0.2696637474506153</v>
       </c>
       <c r="C310" t="n">
-        <v>131662710.3935029</v>
+        <v>186826959.4431379</v>
       </c>
       <c r="D310" t="n">
-        <v>9218553307.245695</v>
+        <v>9440263488.262413</v>
       </c>
       <c r="E310" t="n">
-        <v>0.04823496746085867</v>
+        <v>0.04906817638221134</v>
+      </c>
+      <c r="F310" t="n">
+        <v>2.405043108471872</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>0.2696637474506153</v>
+        <v>0.2871479119846013</v>
       </c>
       <c r="C311" t="n">
-        <v>186826959.4431379</v>
+        <v>295593998.3762755</v>
       </c>
       <c r="D311" t="n">
-        <v>9440263488.262413</v>
+        <v>10077394526.9687</v>
       </c>
       <c r="E311" t="n">
-        <v>0.04906817638221134</v>
+        <v>0.04893485961044709</v>
+      </c>
+      <c r="F311" t="n">
+        <v>6.749081098196719</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>0.2871479119846013</v>
+        <v>0.2902599373505153</v>
       </c>
       <c r="C312" t="n">
-        <v>295593998.3762755</v>
+        <v>286027475.6594799</v>
       </c>
       <c r="D312" t="n">
-        <v>10077394526.9687</v>
+        <v>10184721281.67533</v>
       </c>
       <c r="E312" t="n">
-        <v>0.04893485961044709</v>
+        <v>0.04849419299154801</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1.065024837713846</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>0.2902599373505153</v>
+        <v>0.2958710930183947</v>
       </c>
       <c r="C313" t="n">
-        <v>286027475.6594799</v>
+        <v>206656706.0810019</v>
       </c>
       <c r="D313" t="n">
-        <v>10184721281.67533</v>
+        <v>10372780075.38508</v>
       </c>
       <c r="E313" t="n">
-        <v>0.04849419299154801</v>
+        <v>0.04800429498630609</v>
+      </c>
+      <c r="F313" t="n">
+        <v>1.846479530550438</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>0.2958710930183947</v>
+        <v>0.2896137781855168</v>
       </c>
       <c r="C314" t="n">
-        <v>206656706.0810019</v>
+        <v>176469156.7523416</v>
       </c>
       <c r="D314" t="n">
-        <v>10372780075.38508</v>
+        <v>10142648581.2705</v>
       </c>
       <c r="E314" t="n">
-        <v>0.04800429498630609</v>
+        <v>0.04769679058733028</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-2.218609595904697</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>0.2896137781855168</v>
+        <v>0.292018442533479</v>
       </c>
       <c r="C315" t="n">
-        <v>176469156.7523416</v>
+        <v>187472201.8491652</v>
       </c>
       <c r="D315" t="n">
-        <v>10142648581.2705</v>
+        <v>10231056021.84787</v>
       </c>
       <c r="E315" t="n">
-        <v>0.04769679058733028</v>
+        <v>0.04707985591130239</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.8716405766105773</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>0.292018442533479</v>
+        <v>0.2806163002794754</v>
       </c>
       <c r="C316" t="n">
-        <v>187472201.8491652</v>
+        <v>182777350.2451094</v>
       </c>
       <c r="D316" t="n">
-        <v>10231056021.84787</v>
+        <v>9810691801.661991</v>
       </c>
       <c r="E316" t="n">
-        <v>0.04707985591130239</v>
+        <v>0.04638503305490039</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-4.108708028655206</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>0.2806163002794754</v>
+        <v>0.2863643768382662</v>
       </c>
       <c r="C317" t="n">
-        <v>182777350.2451094</v>
+        <v>170343328.1372009</v>
       </c>
       <c r="D317" t="n">
-        <v>9810691801.661991</v>
+        <v>10017483018.00246</v>
       </c>
       <c r="E317" t="n">
-        <v>0.04638503305490039</v>
+        <v>0.04454762387230202</v>
+      </c>
+      <c r="F317" t="n">
+        <v>2.107814826120991</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>0.2863643768382662</v>
+        <v>0.2669874012462581</v>
       </c>
       <c r="C318" t="n">
-        <v>170343328.1372009</v>
+        <v>233130564.1129032</v>
       </c>
       <c r="D318" t="n">
-        <v>10017483018.00246</v>
+        <v>9356849697.301359</v>
       </c>
       <c r="E318" t="n">
-        <v>0.04454762387230202</v>
+        <v>0.04308463275084491</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-6.594803500179358</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>0.2669874012462581</v>
+        <v>0.2757364399980156</v>
       </c>
       <c r="C319" t="n">
-        <v>233130564.1129032</v>
+        <v>180074752.0800088</v>
       </c>
       <c r="D319" t="n">
-        <v>9356849697.301359</v>
+        <v>9671039073.215143</v>
       </c>
       <c r="E319" t="n">
-        <v>0.04308463275084491</v>
+        <v>0.04107117903319036</v>
+      </c>
+      <c r="F319" t="n">
+        <v>3.357854257340476</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>0.2757364399980156</v>
+        <v>0.2868455734692376</v>
       </c>
       <c r="C320" t="n">
-        <v>180074752.0800088</v>
+        <v>425857201.3658996</v>
       </c>
       <c r="D320" t="n">
-        <v>9671039073.215143</v>
+        <v>10050094320.53794</v>
       </c>
       <c r="E320" t="n">
-        <v>0.04107117903319036</v>
+        <v>0.03868195087281185</v>
+      </c>
+      <c r="F320" t="n">
+        <v>3.919488324399634</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>0.2868455734692376</v>
+        <v>0.2921312062252778</v>
       </c>
       <c r="C321" t="n">
-        <v>425857201.3658996</v>
+        <v>187193676.0035999</v>
       </c>
       <c r="D321" t="n">
-        <v>10050094320.53794</v>
+        <v>10225246937.05135</v>
       </c>
       <c r="E321" t="n">
-        <v>0.03868195087281185</v>
+        <v>0.03656047695476119</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1.742795748249604</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>0.2921312062252778</v>
+        <v>0.2915753814957808</v>
       </c>
       <c r="C322" t="n">
-        <v>187193676.0035999</v>
+        <v>175401361.3007385</v>
       </c>
       <c r="D322" t="n">
-        <v>10225246937.05135</v>
+        <v>10211321938.63598</v>
       </c>
       <c r="E322" t="n">
-        <v>0.03656047695476119</v>
+        <v>0.03305315297648957</v>
+      </c>
+      <c r="F322" t="n">
+        <v>-0.136182514721539</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>0.2915753814957808</v>
+        <v>0.2957179078479821</v>
       </c>
       <c r="C323" t="n">
-        <v>175401361.3007385</v>
+        <v>171795458.121237</v>
       </c>
       <c r="D323" t="n">
-        <v>10211321938.63598</v>
+        <v>10366764520.14783</v>
       </c>
       <c r="E323" t="n">
-        <v>0.03305315297648957</v>
+        <v>0.02910819406267193</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1.522257181253917</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>0.2957179078479821</v>
+        <v>0.292876474400886</v>
       </c>
       <c r="C324" t="n">
-        <v>171795458.121237</v>
+        <v>212363482.9064509</v>
       </c>
       <c r="D324" t="n">
-        <v>10366764520.14783</v>
+        <v>10297363466.87877</v>
       </c>
       <c r="E324" t="n">
-        <v>0.02910819406267193</v>
+        <v>0.0238604796377956</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-0.669457217188385</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>0.292876474400886</v>
+        <v>0.2841529700961746</v>
       </c>
       <c r="C325" t="n">
-        <v>212363482.9064509</v>
+        <v>197079188.8631909</v>
       </c>
       <c r="D325" t="n">
-        <v>10297363466.87877</v>
+        <v>9968829524.701897</v>
       </c>
       <c r="E325" t="n">
-        <v>0.0238604796377956</v>
+        <v>0.02048760277164922</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-3.190466600830377</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>0.2841529700961746</v>
+        <v>0.2800173386218767</v>
       </c>
       <c r="C326" t="n">
-        <v>197079188.8631909</v>
+        <v>247352215.395918</v>
       </c>
       <c r="D326" t="n">
-        <v>9968829524.701897</v>
+        <v>9826837407.864189</v>
       </c>
       <c r="E326" t="n">
-        <v>0.02048760277164922</v>
+        <v>0.01580807049500903</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-1.424360969217731</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>0.2800173386218767</v>
+        <v>0.2841538706586294</v>
       </c>
       <c r="C327" t="n">
-        <v>247352215.395918</v>
+        <v>178295012.6623645</v>
       </c>
       <c r="D327" t="n">
-        <v>9826837407.864189</v>
+        <v>9958793816.069336</v>
       </c>
       <c r="E327" t="n">
-        <v>0.01580807049500903</v>
+        <v>0.01391616813686319</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1.342816643120037</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>0.2841538706586294</v>
+        <v>0.2905933520752599</v>
       </c>
       <c r="C328" t="n">
-        <v>178295012.6623645</v>
+        <v>175732069.2925931</v>
       </c>
       <c r="D328" t="n">
-        <v>9958793816.069336</v>
+        <v>10178691722.038</v>
       </c>
       <c r="E328" t="n">
-        <v>0.01391616813686319</v>
+        <v>0.01161882972432654</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2.208077705292433</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>0.2905933520752599</v>
+        <v>0.2844534237451533</v>
       </c>
       <c r="C329" t="n">
-        <v>175732069.2925931</v>
+        <v>152531371.9939569</v>
       </c>
       <c r="D329" t="n">
-        <v>10178691722.038</v>
+        <v>9966151770.116873</v>
       </c>
       <c r="E329" t="n">
-        <v>0.01161882972432654</v>
+        <v>0.01130151157627054</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-2.088087130696359</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>0.2844534237451533</v>
+        <v>0.2877475749952592</v>
       </c>
       <c r="C330" t="n">
-        <v>152531371.9939569</v>
+        <v>218839799.4248851</v>
       </c>
       <c r="D330" t="n">
-        <v>9966151770.116873</v>
+        <v>10076045454.92794</v>
       </c>
       <c r="E330" t="n">
-        <v>0.01130151157627054</v>
+        <v>0.01137014803035612</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1.102669188127159</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>0.2877475749952592</v>
+        <v>0.292666992631267</v>
       </c>
       <c r="C331" t="n">
-        <v>218839799.4248851</v>
+        <v>177982818.9669795</v>
       </c>
       <c r="D331" t="n">
-        <v>10076045454.92794</v>
+        <v>10258583229.90282</v>
       </c>
       <c r="E331" t="n">
-        <v>0.01137014803035612</v>
+        <v>0.01150169709081717</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1.811601344906677</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>0.292666992631267</v>
+        <v>0.2887381578443162</v>
       </c>
       <c r="C332" t="n">
-        <v>177982818.9669795</v>
+        <v>157297287.3738458</v>
       </c>
       <c r="D332" t="n">
-        <v>10258583229.90282</v>
+        <v>10116899370.89354</v>
       </c>
       <c r="E332" t="n">
-        <v>0.01150169709081717</v>
+        <v>0.01154373398577722</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-1.381125013406181</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>0.2887381578443162</v>
+        <v>0.3568844439990894</v>
       </c>
       <c r="C333" t="n">
-        <v>157297287.3738458</v>
+        <v>1061529850.449411</v>
       </c>
       <c r="D333" t="n">
-        <v>10116899370.89354</v>
+        <v>12496903000.20417</v>
       </c>
       <c r="E333" t="n">
-        <v>0.01154373398577722</v>
+        <v>0.01791350233700462</v>
+      </c>
+      <c r="F333" t="n">
+        <v>23.52503017038923</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>0.3568844439990894</v>
+        <v>0.3286672769440969</v>
       </c>
       <c r="C334" t="n">
-        <v>1061529850.449411</v>
+        <v>711521604.9803299</v>
       </c>
       <c r="D334" t="n">
-        <v>12496903000.20417</v>
+        <v>11514588242.70672</v>
       </c>
       <c r="E334" t="n">
-        <v>0.01791350233700462</v>
+        <v>0.01922310906341241</v>
+      </c>
+      <c r="F334" t="n">
+        <v>-7.860465568800523</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3286672769440969</v>
+        <v>0.3259384431384771</v>
       </c>
       <c r="C335" t="n">
-        <v>711521604.9803299</v>
+        <v>238740937.7439541</v>
       </c>
       <c r="D335" t="n">
-        <v>11514588242.70672</v>
+        <v>11426902883.37452</v>
       </c>
       <c r="E335" t="n">
-        <v>0.01922310906341241</v>
+        <v>0.01995726993739364</v>
+      </c>
+      <c r="F335" t="n">
+        <v>-0.7615153706233335</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3259384431384771</v>
+        <v>0.314727725948605</v>
       </c>
       <c r="C336" t="n">
-        <v>238740937.7439541</v>
+        <v>273772997.9689421</v>
       </c>
       <c r="D336" t="n">
-        <v>11426902883.37452</v>
+        <v>11010347100.22015</v>
       </c>
       <c r="E336" t="n">
-        <v>0.01995726993739364</v>
+        <v>0.01993811884190158</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-3.645395321950551</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>0.314727725948605</v>
+        <v>0.3126042392523757</v>
       </c>
       <c r="C337" t="n">
-        <v>273772997.9689421</v>
+        <v>254013075.5968411</v>
       </c>
       <c r="D337" t="n">
-        <v>11010347100.22015</v>
+        <v>10949913811.16714</v>
       </c>
       <c r="E337" t="n">
-        <v>0.01993811884190158</v>
+        <v>0.01985221797450823</v>
+      </c>
+      <c r="F337" t="n">
+        <v>-0.5488772379556139</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>0.3126042392523757</v>
+        <v>0.3069326776183702</v>
       </c>
       <c r="C338" t="n">
-        <v>254013075.5968411</v>
+        <v>267786761.2666734</v>
       </c>
       <c r="D338" t="n">
-        <v>10949913811.16714</v>
+        <v>10734285206.64449</v>
       </c>
       <c r="E338" t="n">
-        <v>0.01985221797450823</v>
+        <v>0.01917516161381901</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-1.969226500237353</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>0.3069326776183702</v>
+        <v>0.3240822797504335</v>
       </c>
       <c r="C339" t="n">
-        <v>267786761.2666734</v>
+        <v>383394441.4635727</v>
       </c>
       <c r="D339" t="n">
-        <v>10734285206.64449</v>
+        <v>11355846356.48743</v>
       </c>
       <c r="E339" t="n">
-        <v>0.01917516161381901</v>
+        <v>0.01910733718553762</v>
+      </c>
+      <c r="F339" t="n">
+        <v>5.790428872322084</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>0.3240822797504335</v>
+        <v>0.3157649330786437</v>
       </c>
       <c r="C340" t="n">
-        <v>383394441.4635727</v>
+        <v>336406743.8692537</v>
       </c>
       <c r="D340" t="n">
-        <v>11355846356.48743</v>
+        <v>11077210855.91912</v>
       </c>
       <c r="E340" t="n">
-        <v>0.01910733718553762</v>
+        <v>0.01883526354676255</v>
+      </c>
+      <c r="F340" t="n">
+        <v>-2.453674449453291</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3157649330786437</v>
+        <v>0.3131706030213035</v>
       </c>
       <c r="C341" t="n">
-        <v>336406743.8692537</v>
+        <v>205649259.8467456</v>
       </c>
       <c r="D341" t="n">
-        <v>11077210855.91912</v>
+        <v>10970363265.2819</v>
       </c>
       <c r="E341" t="n">
-        <v>0.01883526354676255</v>
+        <v>0.01897745733172133</v>
+      </c>
+      <c r="F341" t="n">
+        <v>-0.9645712447563515</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>0.3131706030213035</v>
+        <v>0.3081742544523981</v>
       </c>
       <c r="C342" t="n">
-        <v>205649259.8467456</v>
+        <v>161693157.5648768</v>
       </c>
       <c r="D342" t="n">
-        <v>10970363265.2819</v>
+        <v>10797046324.55779</v>
       </c>
       <c r="E342" t="n">
-        <v>0.01897745733172133</v>
+        <v>0.01902042493694752</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-1.57986510139192</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>0.3081742544523981</v>
+        <v>0.3170341581613408</v>
       </c>
       <c r="C343" t="n">
-        <v>161693157.5648768</v>
+        <v>149736321.137369</v>
       </c>
       <c r="D343" t="n">
-        <v>10797046324.55779</v>
+        <v>11111458164.70397</v>
       </c>
       <c r="E343" t="n">
-        <v>0.01902042493694752</v>
+        <v>0.01932136561125665</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2.912017145198798</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>0.3170341581613408</v>
+        <v>0.3053354049678074</v>
       </c>
       <c r="C344" t="n">
-        <v>149736321.137369</v>
+        <v>220955020.1083036</v>
       </c>
       <c r="D344" t="n">
-        <v>11111458164.70397</v>
+        <v>10689650364.07024</v>
       </c>
       <c r="E344" t="n">
-        <v>0.01932136561125665</v>
+        <v>0.01927397210355091</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-3.796151633577871</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>0.3053354049678074</v>
+        <v>0.303890501333733</v>
       </c>
       <c r="C345" t="n">
-        <v>220955020.1083036</v>
+        <v>165980268.4600856</v>
       </c>
       <c r="D345" t="n">
-        <v>10689650364.07024</v>
+        <v>10647212849.15463</v>
       </c>
       <c r="E345" t="n">
-        <v>0.01927397210355091</v>
+        <v>0.01923853119182822</v>
+      </c>
+      <c r="F345" t="n">
+        <v>-0.3969962858490828</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>0.303890501333733</v>
+        <v>0.306584839821776</v>
       </c>
       <c r="C346" t="n">
-        <v>165980268.4600856</v>
+        <v>194346560.4642862</v>
       </c>
       <c r="D346" t="n">
-        <v>10647212849.15463</v>
+        <v>10741775967.62575</v>
       </c>
       <c r="E346" t="n">
-        <v>0.01923853119182822</v>
+        <v>0.0189263957616079</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.8881490377891099</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>0.306584839821776</v>
+        <v>0.3074308331134405</v>
       </c>
       <c r="C347" t="n">
-        <v>194346560.4642862</v>
+        <v>146593216.0525046</v>
       </c>
       <c r="D347" t="n">
-        <v>10741775967.62575</v>
+        <v>10776202149.18711</v>
       </c>
       <c r="E347" t="n">
-        <v>0.0189263957616079</v>
+        <v>0.01876687999323971</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.3204887317061811</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>0.3074308331134405</v>
+        <v>0.309919827256323</v>
       </c>
       <c r="C348" t="n">
-        <v>146593216.0525046</v>
+        <v>127820015.0036533</v>
       </c>
       <c r="D348" t="n">
-        <v>10776202149.18711</v>
+        <v>10866387593.2777</v>
       </c>
       <c r="E348" t="n">
-        <v>0.01876687999323971</v>
+        <v>0.01765736693941707</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.8368945092347646</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>0.309919827256323</v>
+        <v>0.3126119877987806</v>
       </c>
       <c r="C349" t="n">
-        <v>127820015.0036533</v>
+        <v>142844606.3203603</v>
       </c>
       <c r="D349" t="n">
-        <v>10866387593.2777</v>
+        <v>10959012408.06752</v>
       </c>
       <c r="E349" t="n">
-        <v>0.01765736693941707</v>
+        <v>0.01697752841489552</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.8523974871567752</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3126119877987806</v>
+        <v>0.3153372481514958</v>
       </c>
       <c r="C350" t="n">
-        <v>142844606.3203603</v>
+        <v>170944684.2833892</v>
       </c>
       <c r="D350" t="n">
-        <v>10959012408.06752</v>
+        <v>11028996499.90646</v>
       </c>
       <c r="E350" t="n">
-        <v>0.01697752841489552</v>
+        <v>0.01677780889858203</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.6385985272489458</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>0.3153372481514958</v>
+        <v>0.3073463240460917</v>
       </c>
       <c r="C351" t="n">
-        <v>170944684.2833892</v>
+        <v>181518352.2729319</v>
       </c>
       <c r="D351" t="n">
-        <v>11028996499.90646</v>
+        <v>10781568926.08183</v>
       </c>
       <c r="E351" t="n">
-        <v>0.01677780889858203</v>
+        <v>0.0166045474308899</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-2.243427802581444</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>0.3073463240460917</v>
+        <v>0.3093745772588943</v>
       </c>
       <c r="C352" t="n">
-        <v>181518352.2729319</v>
+        <v>242542187.9484125</v>
       </c>
       <c r="D352" t="n">
-        <v>10781568926.08183</v>
+        <v>10825594362.70912</v>
       </c>
       <c r="E352" t="n">
-        <v>0.0166045474308899</v>
+        <v>0.01640649562253201</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.4083397966393454</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>0.3093745772588943</v>
+        <v>0.2990048491862243</v>
       </c>
       <c r="C353" t="n">
-        <v>242542187.9484125</v>
+        <v>208213921.7025623</v>
       </c>
       <c r="D353" t="n">
-        <v>10825594362.70912</v>
+        <v>10481916364.38199</v>
       </c>
       <c r="E353" t="n">
-        <v>0.01640649562253201</v>
+        <v>0.01634565032615509</v>
+      </c>
+      <c r="F353" t="n">
+        <v>-3.174680177478229</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>0.2990048491862243</v>
+        <v>0.2924376189585452</v>
       </c>
       <c r="C354" t="n">
-        <v>208213921.7025623</v>
+        <v>292519752.4985298</v>
       </c>
       <c r="D354" t="n">
-        <v>10481916364.38199</v>
+        <v>10262424186.56672</v>
       </c>
       <c r="E354" t="n">
-        <v>0.01634565032615509</v>
+        <v>0.0163581836490051</v>
+      </c>
+      <c r="F354" t="n">
+        <v>-2.094008101048384</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>0.2924376189585452</v>
+        <v>0.2934853427158879</v>
       </c>
       <c r="C355" t="n">
-        <v>292519752.4985298</v>
+        <v>197170877.9612019</v>
       </c>
       <c r="D355" t="n">
-        <v>10262424186.56672</v>
+        <v>10282386058.2736</v>
       </c>
       <c r="E355" t="n">
-        <v>0.0163581836490051</v>
+        <v>0.01600963130279056</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.1945141941511963</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>0.2934853427158879</v>
+        <v>0.2935988870619254</v>
       </c>
       <c r="C356" t="n">
-        <v>197170877.9612019</v>
+        <v>157529534.711723</v>
       </c>
       <c r="D356" t="n">
-        <v>10282386058.2736</v>
+        <v>10280822652.87759</v>
       </c>
       <c r="E356" t="n">
-        <v>0.01600963130279056</v>
+        <v>0.0154158434966646</v>
+      </c>
+      <c r="F356" t="n">
+        <v>-0.01520469458300422</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>0.2935988870619254</v>
+        <v>0.2916979790306847</v>
       </c>
       <c r="C357" t="n">
-        <v>157529534.711723</v>
+        <v>150759078.2290732</v>
       </c>
       <c r="D357" t="n">
-        <v>10280822652.87759</v>
+        <v>10217852028.84211</v>
       </c>
       <c r="E357" t="n">
-        <v>0.0154158434966646</v>
+        <v>0.0150891206655997</v>
+      </c>
+      <c r="F357" t="n">
+        <v>-0.6125056929938921</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>0.2916979790306847</v>
+        <v>0.2901808551538462</v>
       </c>
       <c r="C358" t="n">
-        <v>150759078.2290732</v>
+        <v>239590650.8677542</v>
       </c>
       <c r="D358" t="n">
-        <v>10217852028.84211</v>
+        <v>10165410298.22403</v>
       </c>
       <c r="E358" t="n">
-        <v>0.0150891206655997</v>
+        <v>0.01510496228848071</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-0.5132363482075242</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>0.2901808551538462</v>
+        <v>0.2978316095945501</v>
       </c>
       <c r="C359" t="n">
-        <v>239590650.8677542</v>
+        <v>312662208.2085525</v>
       </c>
       <c r="D359" t="n">
-        <v>10165410298.22403</v>
+        <v>10441947848.68364</v>
       </c>
       <c r="E359" t="n">
-        <v>0.01510496228848071</v>
+        <v>0.01459946570866532</v>
+      </c>
+      <c r="F359" t="n">
+        <v>2.720377656649187</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>0.2978316095945501</v>
+        <v>0.3012057695740835</v>
       </c>
       <c r="C360" t="n">
-        <v>312662208.2085525</v>
+        <v>195518674.0081936</v>
       </c>
       <c r="D360" t="n">
-        <v>10441947848.68364</v>
+        <v>10562679849.63074</v>
       </c>
       <c r="E360" t="n">
-        <v>0.01459946570866532</v>
+        <v>0.01416751832691901</v>
+      </c>
+      <c r="F360" t="n">
+        <v>1.156221068105845</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>0.3012057695740835</v>
+        <v>0.2960268632634978</v>
       </c>
       <c r="C361" t="n">
-        <v>195518674.0081936</v>
+        <v>179477802.6047767</v>
       </c>
       <c r="D361" t="n">
-        <v>10562679849.63074</v>
+        <v>10375263805.24758</v>
       </c>
       <c r="E361" t="n">
-        <v>0.01416751832691901</v>
+        <v>0.01405423157221292</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-1.774322871195511</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>0.2960268632634978</v>
+        <v>0.2933246871372997</v>
       </c>
       <c r="C362" t="n">
-        <v>179477802.6047767</v>
+        <v>124610584.5744091</v>
       </c>
       <c r="D362" t="n">
-        <v>10375263805.24758</v>
+        <v>10278658176.64207</v>
       </c>
       <c r="E362" t="n">
-        <v>0.01405423157221292</v>
+        <v>0.01385880210777221</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-0.9311149134989427</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>0.2933246871372997</v>
+        <v>0.2916657566851706</v>
       </c>
       <c r="C363" t="n">
-        <v>124610584.5744091</v>
+        <v>105607968.6048443</v>
       </c>
       <c r="D363" t="n">
-        <v>10278658176.64207</v>
+        <v>10217585439.95306</v>
       </c>
       <c r="E363" t="n">
-        <v>0.01385880210777221</v>
+        <v>0.01075010831089992</v>
+      </c>
+      <c r="F363" t="n">
+        <v>-0.5941703249534469</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2916657566851706</v>
+        <v>0.2893724194533518</v>
       </c>
       <c r="C364" t="n">
-        <v>105607968.6048443</v>
+        <v>125106297.155349</v>
       </c>
       <c r="D364" t="n">
-        <v>10217585439.95306</v>
+        <v>10135047904.82735</v>
       </c>
       <c r="E364" t="n">
-        <v>0.01075010831089992</v>
+        <v>0.01030014585476043</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-0.8077988249843182</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>0.2893724194533518</v>
+        <v>0.2904518139096793</v>
       </c>
       <c r="C365" t="n">
-        <v>125106297.155349</v>
+        <v>129874470.3953759</v>
       </c>
       <c r="D365" t="n">
-        <v>10135047904.82735</v>
+        <v>10181963472.17007</v>
       </c>
       <c r="E365" t="n">
-        <v>0.01030014585476043</v>
+        <v>0.009823809651389964</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.4629042485372103</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>0.2904518139096793</v>
+        <v>0.2817294854003445</v>
       </c>
       <c r="C366" t="n">
-        <v>129874470.3953759</v>
+        <v>174122704.0345391</v>
       </c>
       <c r="D366" t="n">
-        <v>10181963472.17007</v>
+        <v>9874705133.518471</v>
       </c>
       <c r="E366" t="n">
-        <v>0.009823809651389964</v>
+        <v>0.01037676722261871</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-3.017672765095059</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.34625</v>
+        <v>45154.50354166667</v>
       </c>
       <c r="B367" t="n">
-        <v>0.2896956714926308</v>
+        <v>0.2772993591640598</v>
       </c>
       <c r="C367" t="n">
-        <v>111903230.2471223</v>
+        <v>199353125.0029031</v>
       </c>
       <c r="D367" t="n">
-        <v>10151927736.35406</v>
+        <v>9727931907.990753</v>
       </c>
       <c r="E367" t="n">
-        <v>0.00991633530302782</v>
+        <v>0.01117295115299591</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-1.486355527007222</v>
       </c>
     </row>
   </sheetData>
